--- a/ece2cmor3/scripts/create-nemo-only-list/nemo-miss-list-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/scripts/create-nemo-only-list/nemo-miss-list-cmpi6-requested-variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7023" uniqueCount="1885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7032" uniqueCount="1888">
   <si>
     <t>Table</t>
   </si>
@@ -4763,6 +4763,15 @@
   </si>
   <si>
     <t>Dissolved inorganic carbon-14 (CO3+HCO3+H2CO3) concentration</t>
+  </si>
+  <si>
+    <t>fHarvestToProduct</t>
+  </si>
+  <si>
+    <t>Harvested Biomass That Goes into Product Pool</t>
+  </si>
+  <si>
+    <t>be it food or wood harvest, any carbon that is subsequently stored is reported here</t>
   </si>
   <si>
     <t>fN2O</t>
@@ -6009,7 +6018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N813"/>
+  <dimension ref="A1:N814"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26681,14 +26690,14 @@
         <v>202</v>
       </c>
       <c r="G657">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cf78-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a796-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J657" t="s">
         <v>1585</v>
       </c>
       <c r="K657" t="s">
-        <v>1475</v>
+        <v>1500</v>
       </c>
       <c r="M657" t="s">
         <v>202</v>
@@ -26702,7 +26711,7 @@
         <v>1586</v>
       </c>
       <c r="C658" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D658" t="s">
         <v>172</v>
@@ -26714,14 +26723,14 @@
         <v>202</v>
       </c>
       <c r="G658">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f097e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912cf78-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J658" t="s">
         <v>1588</v>
       </c>
       <c r="K658" t="s">
-        <v>1500</v>
+        <v>1475</v>
       </c>
       <c r="M658" t="s">
         <v>202</v>
@@ -26735,7 +26744,7 @@
         <v>1589</v>
       </c>
       <c r="C659" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D659" t="s">
         <v>172</v>
@@ -26747,7 +26756,7 @@
         <v>202</v>
       </c>
       <c r="G659">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912d5ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f097e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J659" t="s">
@@ -26768,7 +26777,7 @@
         <v>1592</v>
       </c>
       <c r="C660" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D660" t="s">
         <v>172</v>
@@ -26780,7 +26789,7 @@
         <v>202</v>
       </c>
       <c r="G660">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913a696-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912d5ea-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J660" t="s">
@@ -26813,11 +26822,11 @@
         <v>202</v>
       </c>
       <c r="G661">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591348fe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913a696-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J661" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="K661" t="s">
         <v>1500</v>
@@ -26831,7 +26840,7 @@
         <v>1467</v>
       </c>
       <c r="B662" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C662" t="s">
         <v>55</v>
@@ -26840,17 +26849,17 @@
         <v>172</v>
       </c>
       <c r="E662" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="F662" t="s">
         <v>202</v>
       </c>
       <c r="G662">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84ef402c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591348fe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J662" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="K662" t="s">
         <v>1500</v>
@@ -26864,7 +26873,7 @@
         <v>1467</v>
       </c>
       <c r="B663" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C663" t="s">
         <v>55</v>
@@ -26873,17 +26882,17 @@
         <v>172</v>
       </c>
       <c r="E663" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="F663" t="s">
         <v>202</v>
       </c>
       <c r="G663">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ddec-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84ef402c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J663" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="K663" t="s">
         <v>1500</v>
@@ -26897,32 +26906,32 @@
         <v>1467</v>
       </c>
       <c r="B664" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="C664" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D664" t="s">
-        <v>1602</v>
+        <v>172</v>
       </c>
       <c r="E664" t="s">
         <v>1603</v>
       </c>
       <c r="F664" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="G664">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30557c-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0ddec-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J664" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="K664" t="s">
-        <v>1605</v>
+        <v>1500</v>
       </c>
       <c r="M664" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
     </row>
     <row r="665" spans="1:13">
@@ -26930,32 +26939,32 @@
         <v>1467</v>
       </c>
       <c r="B665" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C665" t="s">
+        <v>35</v>
+      </c>
+      <c r="D665" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E665" t="s">
         <v>1606</v>
       </c>
-      <c r="C665" t="s">
-        <v>55</v>
-      </c>
-      <c r="D665" t="s">
-        <v>172</v>
-      </c>
-      <c r="E665" t="s">
+      <c r="F665" t="s">
+        <v>95</v>
+      </c>
+      <c r="G665">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3f30557c-b89b-11e6-be04-ac72891c3257.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="J665" t="s">
         <v>1607</v>
       </c>
-      <c r="F665" t="s">
-        <v>202</v>
-      </c>
-      <c r="G665">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917788e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="J665" t="s">
+      <c r="K665" t="s">
         <v>1608</v>
       </c>
-      <c r="K665" t="s">
-        <v>1475</v>
-      </c>
       <c r="M665" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
     </row>
     <row r="666" spans="1:13">
@@ -26978,14 +26987,14 @@
         <v>202</v>
       </c>
       <c r="G666">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c47e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917788e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J666" t="s">
         <v>1611</v>
       </c>
       <c r="K666" t="s">
-        <v>1500</v>
+        <v>1475</v>
       </c>
       <c r="M666" t="s">
         <v>202</v>
@@ -27011,14 +27020,14 @@
         <v>202</v>
       </c>
       <c r="G667">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f9ace-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0c47e-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J667" t="s">
         <v>1614</v>
       </c>
       <c r="K667" t="s">
-        <v>1475</v>
+        <v>1500</v>
       </c>
       <c r="M667" t="s">
         <v>202</v>
@@ -27044,7 +27053,7 @@
         <v>202</v>
       </c>
       <c r="G668">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f95c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f9ace-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J668" t="s">
@@ -27062,32 +27071,32 @@
         <v>1467</v>
       </c>
       <c r="B669" t="s">
-        <v>1319</v>
+        <v>1618</v>
       </c>
       <c r="C669" t="s">
         <v>55</v>
       </c>
       <c r="D669" t="s">
-        <v>1542</v>
+        <v>172</v>
       </c>
       <c r="E669" t="s">
-        <v>1320</v>
+        <v>1619</v>
       </c>
       <c r="F669" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="G669">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f21d4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f95c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J669" t="s">
-        <v>1321</v>
+        <v>1620</v>
       </c>
       <c r="K669" t="s">
-        <v>21</v>
+        <v>1475</v>
       </c>
       <c r="M669" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
     </row>
     <row r="670" spans="1:13">
@@ -27095,32 +27104,32 @@
         <v>1467</v>
       </c>
       <c r="B670" t="s">
-        <v>1618</v>
+        <v>1319</v>
       </c>
       <c r="C670" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D670" t="s">
-        <v>1602</v>
+        <v>1542</v>
       </c>
       <c r="E670" t="s">
-        <v>1619</v>
+        <v>1320</v>
       </c>
       <c r="F670" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="G670">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ee804-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f21d4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J670" t="s">
-        <v>1620</v>
+        <v>1321</v>
       </c>
       <c r="K670" t="s">
-        <v>1605</v>
+        <v>21</v>
       </c>
       <c r="M670" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="671" spans="1:13">
@@ -27134,7 +27143,7 @@
         <v>35</v>
       </c>
       <c r="D671" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="E671" t="s">
         <v>1622</v>
@@ -27143,14 +27152,14 @@
         <v>95</v>
       </c>
       <c r="G671">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e590c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ee804-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J671" t="s">
         <v>1623</v>
       </c>
       <c r="K671" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="M671" t="s">
         <v>95</v>
@@ -27161,32 +27170,32 @@
         <v>1467</v>
       </c>
       <c r="B672" t="s">
-        <v>1348</v>
+        <v>1624</v>
       </c>
       <c r="C672" t="s">
         <v>35</v>
       </c>
       <c r="D672" t="s">
-        <v>1349</v>
+        <v>1605</v>
       </c>
       <c r="E672" t="s">
-        <v>1350</v>
+        <v>1625</v>
       </c>
       <c r="F672" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="G672">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bf56baca-c14c-11e6-bb6a-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e590c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J672" t="s">
-        <v>1351</v>
+        <v>1626</v>
       </c>
       <c r="K672" t="s">
-        <v>1048</v>
+        <v>1608</v>
       </c>
       <c r="M672" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
     </row>
     <row r="673" spans="1:13">
@@ -27194,32 +27203,32 @@
         <v>1467</v>
       </c>
       <c r="B673" t="s">
-        <v>1624</v>
+        <v>1348</v>
       </c>
       <c r="C673" t="s">
         <v>35</v>
       </c>
       <c r="D673" t="s">
-        <v>1625</v>
+        <v>1349</v>
       </c>
       <c r="E673" t="s">
-        <v>1626</v>
+        <v>1350</v>
       </c>
       <c r="F673" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G673">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59178a72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bf56baca-c14c-11e6-bb6a-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J673" t="s">
-        <v>1627</v>
+        <v>1351</v>
       </c>
       <c r="K673" t="s">
-        <v>1605</v>
+        <v>1048</v>
       </c>
       <c r="M673" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="674" spans="1:13">
@@ -27227,32 +27236,32 @@
         <v>1467</v>
       </c>
       <c r="B674" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C674" t="s">
+        <v>35</v>
+      </c>
+      <c r="D674" t="s">
         <v>1628</v>
-      </c>
-      <c r="C674" t="s">
-        <v>35</v>
-      </c>
-      <c r="D674" t="s">
-        <v>172</v>
       </c>
       <c r="E674" t="s">
         <v>1629</v>
       </c>
       <c r="F674" t="s">
+        <v>35</v>
+      </c>
+      <c r="G674">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59178a72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="J674" t="s">
         <v>1630</v>
       </c>
-      <c r="G674">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="J674" t="s">
-        <v>1631</v>
-      </c>
       <c r="K674" t="s">
-        <v>1471</v>
+        <v>1608</v>
       </c>
       <c r="M674" t="s">
-        <v>1630</v>
+        <v>35</v>
       </c>
     </row>
     <row r="675" spans="1:13">
@@ -27260,7 +27269,7 @@
         <v>1467</v>
       </c>
       <c r="B675" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C675" t="s">
         <v>35</v>
@@ -27269,23 +27278,23 @@
         <v>172</v>
       </c>
       <c r="E675" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F675" t="s">
         <v>1633</v>
       </c>
-      <c r="F675" t="s">
+      <c r="G675">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="J675" t="s">
         <v>1634</v>
-      </c>
-      <c r="G675">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="J675" t="s">
-        <v>1635</v>
       </c>
       <c r="K675" t="s">
         <v>1471</v>
       </c>
       <c r="M675" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="676" spans="1:13">
@@ -27293,7 +27302,7 @@
         <v>1467</v>
       </c>
       <c r="B676" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C676" t="s">
         <v>35</v>
@@ -27302,13 +27311,13 @@
         <v>172</v>
       </c>
       <c r="E676" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F676" t="s">
         <v>1637</v>
       </c>
-      <c r="F676" t="s">
-        <v>1630</v>
-      </c>
       <c r="G676">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J676" t="s">
@@ -27318,7 +27327,7 @@
         <v>1471</v>
       </c>
       <c r="M676" t="s">
-        <v>1630</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="677" spans="1:13">
@@ -27338,10 +27347,10 @@
         <v>1640</v>
       </c>
       <c r="F677" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="G677">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J677" t="s">
@@ -27351,7 +27360,7 @@
         <v>1471</v>
       </c>
       <c r="M677" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="678" spans="1:13">
@@ -27359,32 +27368,32 @@
         <v>1467</v>
       </c>
       <c r="B678" t="s">
-        <v>1171</v>
+        <v>1642</v>
       </c>
       <c r="C678" t="s">
         <v>35</v>
       </c>
       <c r="D678" t="s">
-        <v>1352</v>
+        <v>172</v>
       </c>
       <c r="E678" t="s">
-        <v>1173</v>
+        <v>1643</v>
       </c>
       <c r="F678" t="s">
-        <v>42</v>
+        <v>1637</v>
       </c>
       <c r="G678">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149a10-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J678" t="s">
-        <v>1174</v>
+        <v>1644</v>
       </c>
       <c r="K678" t="s">
-        <v>1152</v>
+        <v>1471</v>
       </c>
       <c r="M678" t="s">
-        <v>42</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="679" spans="1:13">
@@ -27392,26 +27401,26 @@
         <v>1467</v>
       </c>
       <c r="B679" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C679" t="s">
         <v>35</v>
       </c>
       <c r="D679" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E679" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="F679" t="s">
         <v>42</v>
       </c>
       <c r="G679">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912eff8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59149a10-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J679" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="K679" t="s">
         <v>1152</v>
@@ -27425,32 +27434,32 @@
         <v>1467</v>
       </c>
       <c r="B680" t="s">
-        <v>1369</v>
+        <v>1175</v>
       </c>
       <c r="C680" t="s">
         <v>35</v>
       </c>
       <c r="D680" t="s">
-        <v>172</v>
+        <v>1353</v>
       </c>
       <c r="E680" t="s">
-        <v>1370</v>
+        <v>1177</v>
       </c>
       <c r="F680" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G680">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a17b2a3bcad6c41455a7e2474fb1fdcb.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912eff8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J680" t="s">
-        <v>1371</v>
+        <v>1178</v>
       </c>
       <c r="K680" t="s">
-        <v>1547</v>
+        <v>1152</v>
       </c>
       <c r="M680" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="681" spans="1:13">
@@ -27458,7 +27467,7 @@
         <v>1467</v>
       </c>
       <c r="B681" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="C681" t="s">
         <v>35</v>
@@ -27467,17 +27476,17 @@
         <v>172</v>
       </c>
       <c r="E681" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="F681" t="s">
         <v>50</v>
       </c>
       <c r="G681">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e8d9deb887c24ae8008ca2179208f99d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a17b2a3bcad6c41455a7e2474fb1fdcb.html","web")</f>
         <v>0</v>
       </c>
       <c r="J681" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="K681" t="s">
         <v>1547</v>
@@ -27491,7 +27500,7 @@
         <v>1467</v>
       </c>
       <c r="B682" t="s">
-        <v>1642</v>
+        <v>1375</v>
       </c>
       <c r="C682" t="s">
         <v>35</v>
@@ -27500,23 +27509,23 @@
         <v>172</v>
       </c>
       <c r="E682" t="s">
-        <v>1643</v>
+        <v>1376</v>
       </c>
       <c r="F682" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G682">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914ede4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e8d9deb887c24ae8008ca2179208f99d.html","web")</f>
         <v>0</v>
       </c>
       <c r="J682" t="s">
-        <v>1644</v>
+        <v>1377</v>
       </c>
       <c r="K682" t="s">
-        <v>1471</v>
+        <v>1547</v>
       </c>
       <c r="M682" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="683" spans="1:13">
@@ -27539,7 +27548,7 @@
         <v>95</v>
       </c>
       <c r="G683">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591497a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914ede4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J683" t="s">
@@ -27572,7 +27581,7 @@
         <v>95</v>
       </c>
       <c r="G684">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f9f66ff437154f86913937f9e2d9a26d.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591497a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J684" t="s">
@@ -27605,11 +27614,11 @@
         <v>95</v>
       </c>
       <c r="G685">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ab57604d6acd918c08aa6252145c608e.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f9f66ff437154f86913937f9e2d9a26d.html","web")</f>
         <v>0</v>
       </c>
       <c r="J685" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="K685" t="s">
         <v>1471</v>
@@ -27623,7 +27632,7 @@
         <v>1467</v>
       </c>
       <c r="B686" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C686" t="s">
         <v>35</v>
@@ -27632,17 +27641,17 @@
         <v>172</v>
       </c>
       <c r="E686" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="F686" t="s">
         <v>95</v>
       </c>
       <c r="G686">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59134bf6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ab57604d6acd918c08aa6252145c608e.html","web")</f>
         <v>0</v>
       </c>
       <c r="J686" t="s">
-        <v>1644</v>
+        <v>1653</v>
       </c>
       <c r="K686" t="s">
         <v>1471</v>
@@ -27656,7 +27665,7 @@
         <v>1467</v>
       </c>
       <c r="B687" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C687" t="s">
         <v>35</v>
@@ -27665,23 +27674,23 @@
         <v>172</v>
       </c>
       <c r="E687" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="F687" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G687">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130e98-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59134bf6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J687" t="s">
-        <v>1657</v>
+        <v>1647</v>
       </c>
       <c r="K687" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="M687" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="688" spans="1:13">
@@ -27689,26 +27698,26 @@
         <v>1467</v>
       </c>
       <c r="B688" t="s">
-        <v>1378</v>
+        <v>1658</v>
       </c>
       <c r="C688" t="s">
         <v>35</v>
       </c>
       <c r="D688" t="s">
-        <v>1379</v>
+        <v>172</v>
       </c>
       <c r="E688" t="s">
-        <v>1380</v>
+        <v>1659</v>
       </c>
       <c r="F688" t="s">
         <v>50</v>
       </c>
       <c r="G688">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130e98-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J688" t="s">
-        <v>1381</v>
+        <v>1660</v>
       </c>
       <c r="K688" t="s">
         <v>1475</v>
@@ -27722,26 +27731,26 @@
         <v>1467</v>
       </c>
       <c r="B689" t="s">
-        <v>1658</v>
+        <v>1378</v>
       </c>
       <c r="C689" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D689" t="s">
-        <v>172</v>
+        <v>1379</v>
       </c>
       <c r="E689" t="s">
-        <v>1659</v>
+        <v>1380</v>
       </c>
       <c r="F689" t="s">
         <v>50</v>
       </c>
       <c r="G689">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d24c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d17f4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J689" t="s">
-        <v>1660</v>
+        <v>1381</v>
       </c>
       <c r="K689" t="s">
         <v>1475</v>
@@ -27767,10 +27776,10 @@
         <v>1662</v>
       </c>
       <c r="F690" t="s">
-        <v>202</v>
+        <v>50</v>
       </c>
       <c r="G690">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176d94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590d24c4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J690" t="s">
@@ -27780,7 +27789,7 @@
         <v>1475</v>
       </c>
       <c r="M690" t="s">
-        <v>202</v>
+        <v>50</v>
       </c>
     </row>
     <row r="691" spans="1:13">
@@ -27803,7 +27812,7 @@
         <v>202</v>
       </c>
       <c r="G691">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59132b58-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59176d94-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J691" t="s">
@@ -27836,14 +27845,14 @@
         <v>202</v>
       </c>
       <c r="G692">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0bbbe-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59132b58-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J692" t="s">
         <v>1669</v>
       </c>
       <c r="K692" t="s">
-        <v>1500</v>
+        <v>1475</v>
       </c>
       <c r="M692" t="s">
         <v>202</v>
@@ -27869,7 +27878,7 @@
         <v>202</v>
       </c>
       <c r="G693">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f052-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0bbbe-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J693" t="s">
@@ -27902,11 +27911,11 @@
         <v>202</v>
       </c>
       <c r="G694">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09f30-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f052-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J694" t="s">
-        <v>1669</v>
+        <v>1675</v>
       </c>
       <c r="K694" t="s">
         <v>1500</v>
@@ -27920,32 +27929,32 @@
         <v>1467</v>
       </c>
       <c r="B695" t="s">
-        <v>216</v>
+        <v>1676</v>
       </c>
       <c r="C695" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D695" t="s">
         <v>172</v>
       </c>
       <c r="E695" t="s">
-        <v>217</v>
+        <v>1677</v>
       </c>
       <c r="F695" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="G695">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/117c89cc-b574-11e6-9ed4-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f09f30-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J695" t="s">
-        <v>219</v>
+        <v>1672</v>
       </c>
       <c r="K695" t="s">
-        <v>1675</v>
+        <v>1500</v>
       </c>
       <c r="M695" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="696" spans="1:13">
@@ -27953,32 +27962,32 @@
         <v>1467</v>
       </c>
       <c r="B696" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C696" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D696" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="E696" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F696" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="G696">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1742f769c80d35356bf80ab91789eec6.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/117c89cc-b574-11e6-9ed4-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="J696" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K696" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="M696" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
     </row>
     <row r="697" spans="1:13">
@@ -27986,32 +27995,32 @@
         <v>1467</v>
       </c>
       <c r="B697" t="s">
-        <v>1676</v>
+        <v>220</v>
       </c>
       <c r="C697" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D697" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="E697" t="s">
-        <v>1677</v>
+        <v>221</v>
       </c>
       <c r="F697" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="G697">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130948-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1742f769c80d35356bf80ab91789eec6.html","web")</f>
         <v>0</v>
       </c>
       <c r="J697" t="s">
+        <v>222</v>
+      </c>
+      <c r="K697" t="s">
         <v>1678</v>
       </c>
-      <c r="K697" t="s">
-        <v>1471</v>
-      </c>
       <c r="M697" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="698" spans="1:13">
@@ -28025,7 +28034,7 @@
         <v>35</v>
       </c>
       <c r="D698" t="s">
-        <v>1094</v>
+        <v>172</v>
       </c>
       <c r="E698" t="s">
         <v>1680</v>
@@ -28034,14 +28043,14 @@
         <v>35</v>
       </c>
       <c r="G698">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130948-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J698" t="s">
         <v>1681</v>
       </c>
       <c r="K698" t="s">
-        <v>1682</v>
+        <v>1471</v>
       </c>
       <c r="M698" t="s">
         <v>35</v>
@@ -28052,7 +28061,7 @@
         <v>1467</v>
       </c>
       <c r="B699" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C699" t="s">
         <v>35</v>
@@ -28061,20 +28070,20 @@
         <v>1094</v>
       </c>
       <c r="E699" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F699" t="s">
+        <v>35</v>
+      </c>
+      <c r="G699">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591720a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="J699" t="s">
         <v>1684</v>
       </c>
-      <c r="F699" t="s">
-        <v>35</v>
-      </c>
-      <c r="G699">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914cf30-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="J699" t="s">
+      <c r="K699" t="s">
         <v>1685</v>
-      </c>
-      <c r="K699" t="s">
-        <v>1471</v>
       </c>
       <c r="M699" t="s">
         <v>35</v>
@@ -28091,7 +28100,7 @@
         <v>35</v>
       </c>
       <c r="D700" t="s">
-        <v>172</v>
+        <v>1094</v>
       </c>
       <c r="E700" t="s">
         <v>1687</v>
@@ -28100,7 +28109,7 @@
         <v>35</v>
       </c>
       <c r="G700">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914c0ee-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914cf30-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J700" t="s">
@@ -28118,32 +28127,32 @@
         <v>1467</v>
       </c>
       <c r="B701" t="s">
-        <v>223</v>
+        <v>1689</v>
       </c>
       <c r="C701" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D701" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="E701" t="s">
-        <v>224</v>
+        <v>1690</v>
       </c>
       <c r="F701" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="G701">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2aa31f177542022b5d6ca809cf01eff5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914c0ee-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J701" t="s">
-        <v>225</v>
+        <v>1691</v>
       </c>
       <c r="K701" t="s">
-        <v>1675</v>
+        <v>1471</v>
       </c>
       <c r="M701" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="702" spans="1:13">
@@ -28151,32 +28160,32 @@
         <v>1467</v>
       </c>
       <c r="B702" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C702" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D702" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="E702" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F702" t="s">
-        <v>218</v>
+        <v>95</v>
       </c>
       <c r="G702">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59133ddc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2aa31f177542022b5d6ca809cf01eff5.html","web")</f>
         <v>0</v>
       </c>
       <c r="J702" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K702" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="M702" t="s">
-        <v>218</v>
+        <v>95</v>
       </c>
     </row>
     <row r="703" spans="1:13">
@@ -28184,32 +28193,32 @@
         <v>1467</v>
       </c>
       <c r="B703" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C703" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D703" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="E703" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F703" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="G703">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8530ec1d1281da71f660df7c61571e38.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59133ddc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J703" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K703" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="M703" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
     </row>
     <row r="704" spans="1:13">
@@ -28217,7 +28226,7 @@
         <v>1467</v>
       </c>
       <c r="B704" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C704" t="s">
         <v>55</v>
@@ -28226,20 +28235,20 @@
         <v>105</v>
       </c>
       <c r="E704" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F704" t="s">
         <v>95</v>
       </c>
       <c r="G704">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bf9968cc511b92e99f89e9856bd38fb6.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/8530ec1d1281da71f660df7c61571e38.html","web")</f>
         <v>0</v>
       </c>
       <c r="J704" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K704" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="M704" t="s">
         <v>95</v>
@@ -28250,7 +28259,7 @@
         <v>1467</v>
       </c>
       <c r="B705" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C705" t="s">
         <v>55</v>
@@ -28259,20 +28268,20 @@
         <v>105</v>
       </c>
       <c r="E705" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F705" t="s">
         <v>95</v>
       </c>
       <c r="G705">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/64c745ab7c8597bb0afed2bafd12c20c.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/bf9968cc511b92e99f89e9856bd38fb6.html","web")</f>
         <v>0</v>
       </c>
       <c r="J705" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K705" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="M705" t="s">
         <v>95</v>
@@ -28283,7 +28292,7 @@
         <v>1467</v>
       </c>
       <c r="B706" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C706" t="s">
         <v>55</v>
@@ -28292,20 +28301,20 @@
         <v>105</v>
       </c>
       <c r="E706" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F706" t="s">
         <v>95</v>
       </c>
       <c r="G706">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3cbe53c2-12cc-11e6-b2bc-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/64c745ab7c8597bb0afed2bafd12c20c.html","web")</f>
         <v>0</v>
       </c>
       <c r="J706" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K706" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="M706" t="s">
         <v>95</v>
@@ -28316,7 +28325,7 @@
         <v>1467</v>
       </c>
       <c r="B707" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C707" t="s">
         <v>55</v>
@@ -28325,20 +28334,20 @@
         <v>105</v>
       </c>
       <c r="E707" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F707" t="s">
         <v>95</v>
       </c>
       <c r="G707">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d447c41b5f4e8c44f1fe64503cb4caa1.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/3cbe53c2-12cc-11e6-b2bc-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J707" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K707" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="M707" t="s">
         <v>95</v>
@@ -28349,7 +28358,7 @@
         <v>1467</v>
       </c>
       <c r="B708" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C708" t="s">
         <v>55</v>
@@ -28358,23 +28367,23 @@
         <v>105</v>
       </c>
       <c r="E708" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F708" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="G708">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9259f1caedb47c287bc1c9dfc3c6f756.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d447c41b5f4e8c44f1fe64503cb4caa1.html","web")</f>
         <v>0</v>
       </c>
       <c r="J708" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K708" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="M708" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
     </row>
     <row r="709" spans="1:13">
@@ -28382,32 +28391,32 @@
         <v>1467</v>
       </c>
       <c r="B709" t="s">
-        <v>1689</v>
+        <v>244</v>
       </c>
       <c r="C709" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D709" t="s">
         <v>105</v>
       </c>
       <c r="E709" t="s">
-        <v>1690</v>
+        <v>245</v>
       </c>
       <c r="F709" t="s">
-        <v>1691</v>
+        <v>202</v>
       </c>
       <c r="G709">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15410a16-f746-11e5-950e-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/9259f1caedb47c287bc1c9dfc3c6f756.html","web")</f>
         <v>0</v>
       </c>
       <c r="J709" t="s">
-        <v>1692</v>
+        <v>246</v>
       </c>
       <c r="K709" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="M709" t="s">
-        <v>1691</v>
+        <v>202</v>
       </c>
     </row>
     <row r="710" spans="1:13">
@@ -28415,32 +28424,32 @@
         <v>1467</v>
       </c>
       <c r="B710" t="s">
-        <v>1179</v>
+        <v>1692</v>
       </c>
       <c r="C710" t="s">
         <v>35</v>
       </c>
       <c r="D710" t="s">
-        <v>1383</v>
+        <v>105</v>
       </c>
       <c r="E710" t="s">
-        <v>1181</v>
+        <v>1693</v>
       </c>
       <c r="F710" t="s">
-        <v>35</v>
+        <v>1694</v>
       </c>
       <c r="G710">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a06b8e83250b870d9f39dc1f6534efcb.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15410a16-f746-11e5-950e-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="J710" t="s">
-        <v>1182</v>
+        <v>1695</v>
       </c>
       <c r="K710" t="s">
-        <v>346</v>
+        <v>1678</v>
       </c>
       <c r="M710" t="s">
-        <v>35</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="711" spans="1:13">
@@ -28448,32 +28457,32 @@
         <v>1467</v>
       </c>
       <c r="B711" t="s">
-        <v>1693</v>
+        <v>1179</v>
       </c>
       <c r="C711" t="s">
         <v>35</v>
       </c>
       <c r="D711" t="s">
-        <v>105</v>
+        <v>1383</v>
       </c>
       <c r="E711" t="s">
-        <v>1694</v>
+        <v>1181</v>
       </c>
       <c r="F711" t="s">
-        <v>1691</v>
+        <v>35</v>
       </c>
       <c r="G711">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590df00c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/a06b8e83250b870d9f39dc1f6534efcb.html","web")</f>
         <v>0</v>
       </c>
       <c r="J711" t="s">
-        <v>1695</v>
+        <v>1182</v>
       </c>
       <c r="K711" t="s">
-        <v>1675</v>
+        <v>346</v>
       </c>
       <c r="M711" t="s">
-        <v>1691</v>
+        <v>35</v>
       </c>
     </row>
     <row r="712" spans="1:13">
@@ -28481,32 +28490,32 @@
         <v>1467</v>
       </c>
       <c r="B712" t="s">
-        <v>277</v>
+        <v>1696</v>
       </c>
       <c r="C712" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D712" t="s">
         <v>105</v>
       </c>
       <c r="E712" t="s">
-        <v>278</v>
+        <v>1697</v>
       </c>
       <c r="F712" t="s">
-        <v>115</v>
+        <v>1694</v>
       </c>
       <c r="G712">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e526caea-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590df00c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J712" t="s">
-        <v>279</v>
+        <v>1698</v>
       </c>
       <c r="K712" t="s">
-        <v>1382</v>
+        <v>1678</v>
       </c>
       <c r="M712" t="s">
-        <v>115</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="713" spans="1:13">
@@ -28514,7 +28523,7 @@
         <v>1467</v>
       </c>
       <c r="B713" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C713" t="s">
         <v>16</v>
@@ -28523,17 +28532,17 @@
         <v>105</v>
       </c>
       <c r="E713" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F713" t="s">
         <v>115</v>
       </c>
       <c r="G713">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52644bc-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e526caea-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J713" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K713" t="s">
         <v>1382</v>
@@ -28547,7 +28556,7 @@
         <v>1467</v>
       </c>
       <c r="B714" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C714" t="s">
         <v>16</v>
@@ -28556,17 +28565,17 @@
         <v>105</v>
       </c>
       <c r="E714" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F714" t="s">
         <v>115</v>
       </c>
       <c r="G714">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e527532a-dd83-11e5-9194-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e52644bc-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J714" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K714" t="s">
         <v>1382</v>
@@ -28580,32 +28589,32 @@
         <v>1467</v>
       </c>
       <c r="B715" t="s">
-        <v>1696</v>
+        <v>283</v>
       </c>
       <c r="C715" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D715" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="E715" t="s">
-        <v>1697</v>
+        <v>284</v>
       </c>
       <c r="F715" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="G715">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f10b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e527532a-dd83-11e5-9194-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J715" t="s">
-        <v>1698</v>
+        <v>285</v>
       </c>
       <c r="K715" t="s">
-        <v>1471</v>
+        <v>1382</v>
       </c>
       <c r="M715" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
     </row>
     <row r="716" spans="1:13">
@@ -28628,7 +28637,7 @@
         <v>202</v>
       </c>
       <c r="G716">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e4408-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f10b8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J716" t="s">
@@ -28661,7 +28670,7 @@
         <v>202</v>
       </c>
       <c r="G717">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e105a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e4408-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J717" t="s">
@@ -28685,26 +28694,26 @@
         <v>35</v>
       </c>
       <c r="D718" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="E718" t="s">
         <v>1706</v>
       </c>
       <c r="F718" t="s">
-        <v>1691</v>
+        <v>202</v>
       </c>
       <c r="G718">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/11806b1e-f747-11e5-950e-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e105a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J718" t="s">
         <v>1707</v>
       </c>
       <c r="K718" t="s">
-        <v>1675</v>
+        <v>1471</v>
       </c>
       <c r="M718" t="s">
-        <v>1691</v>
+        <v>202</v>
       </c>
     </row>
     <row r="719" spans="1:13">
@@ -28712,32 +28721,32 @@
         <v>1467</v>
       </c>
       <c r="B719" t="s">
-        <v>1040</v>
+        <v>1708</v>
       </c>
       <c r="C719" t="s">
         <v>35</v>
       </c>
       <c r="D719" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="E719" t="s">
-        <v>1041</v>
+        <v>1709</v>
       </c>
       <c r="F719" t="s">
-        <v>202</v>
+        <v>1694</v>
       </c>
       <c r="G719">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7553003ead183dd3276108b6311a337f.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/11806b1e-f747-11e5-950e-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="J719" t="s">
-        <v>1042</v>
+        <v>1710</v>
       </c>
       <c r="K719" t="s">
-        <v>1043</v>
+        <v>1678</v>
       </c>
       <c r="M719" t="s">
-        <v>202</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="720" spans="1:13">
@@ -28745,7 +28754,7 @@
         <v>1467</v>
       </c>
       <c r="B720" t="s">
-        <v>1708</v>
+        <v>1040</v>
       </c>
       <c r="C720" t="s">
         <v>35</v>
@@ -28754,20 +28763,20 @@
         <v>172</v>
       </c>
       <c r="E720" t="s">
-        <v>1709</v>
+        <v>1041</v>
       </c>
       <c r="F720" t="s">
         <v>202</v>
       </c>
       <c r="G720">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591401a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7553003ead183dd3276108b6311a337f.html","web")</f>
         <v>0</v>
       </c>
       <c r="J720" t="s">
-        <v>1710</v>
+        <v>1042</v>
       </c>
       <c r="K720" t="s">
-        <v>1471</v>
+        <v>1043</v>
       </c>
       <c r="M720" t="s">
         <v>202</v>
@@ -28793,7 +28802,7 @@
         <v>202</v>
       </c>
       <c r="G721">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591763b2-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591401a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J721" t="s">
@@ -28826,7 +28835,7 @@
         <v>202</v>
       </c>
       <c r="G722">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912fb88-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591763b2-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J722" t="s">
@@ -28850,26 +28859,26 @@
         <v>35</v>
       </c>
       <c r="D723" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="E723" t="s">
         <v>1718</v>
       </c>
       <c r="F723" t="s">
-        <v>1691</v>
+        <v>202</v>
       </c>
       <c r="G723">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914af46-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912fb88-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J723" t="s">
         <v>1719</v>
       </c>
       <c r="K723" t="s">
-        <v>1675</v>
+        <v>1471</v>
       </c>
       <c r="M723" t="s">
-        <v>1691</v>
+        <v>202</v>
       </c>
     </row>
     <row r="724" spans="1:13">
@@ -28883,26 +28892,26 @@
         <v>35</v>
       </c>
       <c r="D724" t="s">
-        <v>619</v>
+        <v>105</v>
       </c>
       <c r="E724" t="s">
         <v>1721</v>
       </c>
       <c r="F724" t="s">
-        <v>50</v>
+        <v>1694</v>
       </c>
       <c r="G724">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f7e72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914af46-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J724" t="s">
         <v>1722</v>
       </c>
       <c r="K724" t="s">
-        <v>1471</v>
+        <v>1678</v>
       </c>
       <c r="M724" t="s">
-        <v>50</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="725" spans="1:13">
@@ -28916,7 +28925,7 @@
         <v>35</v>
       </c>
       <c r="D725" t="s">
-        <v>105</v>
+        <v>619</v>
       </c>
       <c r="E725" t="s">
         <v>1724</v>
@@ -28925,7 +28934,7 @@
         <v>50</v>
       </c>
       <c r="G725">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e0dd0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f7e72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J725" t="s">
@@ -28949,7 +28958,7 @@
         <v>35</v>
       </c>
       <c r="D726" t="s">
-        <v>619</v>
+        <v>105</v>
       </c>
       <c r="E726" t="s">
         <v>1727</v>
@@ -28958,7 +28967,7 @@
         <v>50</v>
       </c>
       <c r="G726">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914fd52-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e0dd0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J726" t="s">
@@ -28979,29 +28988,29 @@
         <v>1729</v>
       </c>
       <c r="C727" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D727" t="s">
-        <v>172</v>
+        <v>619</v>
       </c>
       <c r="E727" t="s">
         <v>1730</v>
       </c>
       <c r="F727" t="s">
-        <v>202</v>
+        <v>50</v>
       </c>
       <c r="G727">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f108a8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914fd52-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J727" t="s">
         <v>1731</v>
       </c>
       <c r="K727" t="s">
-        <v>1500</v>
+        <v>1471</v>
       </c>
       <c r="M727" t="s">
-        <v>202</v>
+        <v>50</v>
       </c>
     </row>
     <row r="728" spans="1:13">
@@ -29024,14 +29033,14 @@
         <v>202</v>
       </c>
       <c r="G728">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dd13a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f108a8-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J728" t="s">
         <v>1734</v>
       </c>
       <c r="K728" t="s">
-        <v>1475</v>
+        <v>1500</v>
       </c>
       <c r="M728" t="s">
         <v>202</v>
@@ -29057,7 +29066,7 @@
         <v>202</v>
       </c>
       <c r="G729">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914517c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dd13a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J729" t="s">
@@ -29075,32 +29084,32 @@
         <v>1467</v>
       </c>
       <c r="B730" t="s">
-        <v>1322</v>
+        <v>1738</v>
       </c>
       <c r="C730" t="s">
         <v>55</v>
       </c>
       <c r="D730" t="s">
-        <v>1542</v>
+        <v>172</v>
       </c>
       <c r="E730" t="s">
-        <v>1323</v>
+        <v>1739</v>
       </c>
       <c r="F730" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="G730">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914b9be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914517c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J730" t="s">
-        <v>1324</v>
+        <v>1740</v>
       </c>
       <c r="K730" t="s">
-        <v>21</v>
+        <v>1475</v>
       </c>
       <c r="M730" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
     </row>
     <row r="731" spans="1:13">
@@ -29108,32 +29117,32 @@
         <v>1467</v>
       </c>
       <c r="B731" t="s">
-        <v>1229</v>
+        <v>1322</v>
       </c>
       <c r="C731" t="s">
         <v>55</v>
       </c>
       <c r="D731" t="s">
-        <v>619</v>
+        <v>1542</v>
       </c>
       <c r="E731" t="s">
-        <v>1230</v>
+        <v>1323</v>
       </c>
       <c r="F731" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="G731">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d80ff3a0dec0b1256a0943aadab66813.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914b9be-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J731" t="s">
-        <v>1231</v>
+        <v>1324</v>
       </c>
       <c r="K731" t="s">
-        <v>1152</v>
+        <v>21</v>
       </c>
       <c r="M731" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="732" spans="1:13">
@@ -29141,7 +29150,7 @@
         <v>1467</v>
       </c>
       <c r="B732" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C732" t="s">
         <v>55</v>
@@ -29150,13 +29159,13 @@
         <v>619</v>
       </c>
       <c r="E732" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="F732" t="s">
         <v>69</v>
       </c>
       <c r="G732">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c2270065bb39bfa4fbf0d13a78dfa8a1.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/d80ff3a0dec0b1256a0943aadab66813.html","web")</f>
         <v>0</v>
       </c>
       <c r="J732" t="s">
@@ -29174,7 +29183,7 @@
         <v>1467</v>
       </c>
       <c r="B733" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C733" t="s">
         <v>55</v>
@@ -29183,20 +29192,20 @@
         <v>619</v>
       </c>
       <c r="E733" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F733" t="s">
         <v>69</v>
       </c>
       <c r="G733">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7aa8f285b17a5bcfce416f19c29d6d72.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/c2270065bb39bfa4fbf0d13a78dfa8a1.html","web")</f>
         <v>0</v>
       </c>
       <c r="J733" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="K733" t="s">
-        <v>1738</v>
+        <v>1152</v>
       </c>
       <c r="M733" t="s">
         <v>69</v>
@@ -29207,7 +29216,7 @@
         <v>1467</v>
       </c>
       <c r="B734" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="C734" t="s">
         <v>55</v>
@@ -29216,20 +29225,20 @@
         <v>619</v>
       </c>
       <c r="E734" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="F734" t="s">
         <v>69</v>
       </c>
       <c r="G734">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ed2fff61c68d8a09d5034168e82ae862.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/7aa8f285b17a5bcfce416f19c29d6d72.html","web")</f>
         <v>0</v>
       </c>
       <c r="J734" t="s">
         <v>1236</v>
       </c>
       <c r="K734" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="M734" t="s">
         <v>69</v>
@@ -29240,32 +29249,32 @@
         <v>1467</v>
       </c>
       <c r="B735" t="s">
-        <v>1739</v>
+        <v>1237</v>
       </c>
       <c r="C735" t="s">
         <v>55</v>
       </c>
       <c r="D735" t="s">
-        <v>172</v>
+        <v>619</v>
       </c>
       <c r="E735" t="s">
-        <v>1740</v>
+        <v>1238</v>
       </c>
       <c r="F735" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="G735">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0beac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/ed2fff61c68d8a09d5034168e82ae862.html","web")</f>
         <v>0</v>
       </c>
       <c r="J735" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K735" t="s">
         <v>1741</v>
       </c>
-      <c r="K735" t="s">
-        <v>1500</v>
-      </c>
       <c r="M735" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
     </row>
     <row r="736" spans="1:13">
@@ -29288,7 +29297,7 @@
         <v>202</v>
       </c>
       <c r="G736">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f354-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0beac-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J736" t="s">
@@ -29321,7 +29330,7 @@
         <v>202</v>
       </c>
       <c r="G737">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1117c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0f354-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J737" t="s">
@@ -29354,14 +29363,14 @@
         <v>202</v>
       </c>
       <c r="G738">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1f68-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1117c-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J738" t="s">
         <v>1750</v>
       </c>
       <c r="K738" t="s">
-        <v>1475</v>
+        <v>1500</v>
       </c>
       <c r="M738" t="s">
         <v>202</v>
@@ -29387,11 +29396,11 @@
         <v>202</v>
       </c>
       <c r="G739">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2436-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1f68-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J739" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="K739" t="s">
         <v>1475</v>
@@ -29405,32 +29414,32 @@
         <v>1467</v>
       </c>
       <c r="B740" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C740" t="s">
+        <v>55</v>
+      </c>
+      <c r="D740" t="s">
+        <v>172</v>
+      </c>
+      <c r="E740" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F740" t="s">
+        <v>202</v>
+      </c>
+      <c r="G740">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f2436-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="J740" t="s">
         <v>1753</v>
       </c>
-      <c r="C740" t="s">
-        <v>35</v>
-      </c>
-      <c r="D740" t="s">
-        <v>1602</v>
-      </c>
-      <c r="E740" t="s">
-        <v>1754</v>
-      </c>
-      <c r="F740" t="s">
-        <v>95</v>
-      </c>
-      <c r="G740">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912c3de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="J740" t="s">
-        <v>1755</v>
-      </c>
       <c r="K740" t="s">
-        <v>1605</v>
+        <v>1475</v>
       </c>
       <c r="M740" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
     </row>
     <row r="741" spans="1:13">
@@ -29438,29 +29447,29 @@
         <v>1467</v>
       </c>
       <c r="B741" t="s">
-        <v>286</v>
+        <v>1756</v>
       </c>
       <c r="C741" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D741" t="s">
-        <v>105</v>
+        <v>1605</v>
       </c>
       <c r="E741" t="s">
-        <v>287</v>
+        <v>1757</v>
       </c>
       <c r="F741" t="s">
         <v>95</v>
       </c>
       <c r="G741">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b2f82090-fbed-11e5-8f03-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912c3de-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J741" t="s">
-        <v>288</v>
+        <v>1758</v>
       </c>
       <c r="K741" t="s">
-        <v>1675</v>
+        <v>1608</v>
       </c>
       <c r="M741" t="s">
         <v>95</v>
@@ -29471,29 +29480,29 @@
         <v>1467</v>
       </c>
       <c r="B742" t="s">
-        <v>1391</v>
+        <v>286</v>
       </c>
       <c r="C742" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D742" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="E742" t="s">
-        <v>1392</v>
+        <v>287</v>
       </c>
       <c r="F742" t="s">
         <v>95</v>
       </c>
       <c r="G742">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6ca9dd8a089b15fb96841e9fe56411cf.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b2f82090-fbed-11e5-8f03-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="J742" t="s">
-        <v>1393</v>
+        <v>288</v>
       </c>
       <c r="K742" t="s">
-        <v>1547</v>
+        <v>1678</v>
       </c>
       <c r="M742" t="s">
         <v>95</v>
@@ -29504,7 +29513,7 @@
         <v>1467</v>
       </c>
       <c r="B743" t="s">
-        <v>549</v>
+        <v>1391</v>
       </c>
       <c r="C743" t="s">
         <v>35</v>
@@ -29513,17 +29522,17 @@
         <v>172</v>
       </c>
       <c r="E743" t="s">
-        <v>550</v>
+        <v>1392</v>
       </c>
       <c r="F743" t="s">
         <v>95</v>
       </c>
       <c r="G743">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/6ca9dd8a089b15fb96841e9fe56411cf.html","web")</f>
         <v>0</v>
       </c>
       <c r="J743" t="s">
-        <v>551</v>
+        <v>1393</v>
       </c>
       <c r="K743" t="s">
         <v>1547</v>
@@ -29537,29 +29546,29 @@
         <v>1467</v>
       </c>
       <c r="B744" t="s">
-        <v>1756</v>
+        <v>549</v>
       </c>
       <c r="C744" t="s">
         <v>35</v>
       </c>
       <c r="D744" t="s">
-        <v>1602</v>
+        <v>172</v>
       </c>
       <c r="E744" t="s">
-        <v>1757</v>
+        <v>550</v>
       </c>
       <c r="F744" t="s">
         <v>95</v>
       </c>
       <c r="G744">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912e6d4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/f27656eeae247192e82aa1032c911399.html","web")</f>
         <v>0</v>
       </c>
       <c r="J744" t="s">
-        <v>1758</v>
+        <v>551</v>
       </c>
       <c r="K744" t="s">
-        <v>1605</v>
+        <v>1547</v>
       </c>
       <c r="M744" t="s">
         <v>95</v>
@@ -29576,26 +29585,26 @@
         <v>35</v>
       </c>
       <c r="D745" t="s">
-        <v>172</v>
+        <v>1605</v>
       </c>
       <c r="E745" t="s">
         <v>1760</v>
       </c>
       <c r="F745" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="G745">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1ca290c839426f31f70a0d2862e1c611.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912e6d4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J745" t="s">
         <v>1761</v>
       </c>
       <c r="K745" t="s">
-        <v>1543</v>
+        <v>1608</v>
       </c>
       <c r="M745" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
     </row>
     <row r="746" spans="1:13">
@@ -29618,7 +29627,7 @@
         <v>135</v>
       </c>
       <c r="G746">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96435c8c0c0a8a7423d6abb6c027da69.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1ca290c839426f31f70a0d2862e1c611.html","web")</f>
         <v>0</v>
       </c>
       <c r="J746" t="s">
@@ -29651,14 +29660,14 @@
         <v>135</v>
       </c>
       <c r="G747">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/31a3caf70db7a8ed71e8d0a226365105.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/96435c8c0c0a8a7423d6abb6c027da69.html","web")</f>
         <v>0</v>
       </c>
       <c r="J747" t="s">
         <v>1767</v>
       </c>
       <c r="K747" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="M747" t="s">
         <v>135</v>
@@ -29669,32 +29678,32 @@
         <v>1467</v>
       </c>
       <c r="B748" t="s">
-        <v>1325</v>
+        <v>1768</v>
       </c>
       <c r="C748" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D748" t="s">
-        <v>1542</v>
+        <v>172</v>
       </c>
       <c r="E748" t="s">
-        <v>1326</v>
+        <v>1769</v>
       </c>
       <c r="F748" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="G748">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917d1d0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/31a3caf70db7a8ed71e8d0a226365105.html","web")</f>
         <v>0</v>
       </c>
       <c r="J748" t="s">
-        <v>1327</v>
+        <v>1770</v>
       </c>
       <c r="K748" t="s">
-        <v>21</v>
+        <v>1547</v>
       </c>
       <c r="M748" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
     </row>
     <row r="749" spans="1:13">
@@ -29702,29 +29711,29 @@
         <v>1467</v>
       </c>
       <c r="B749" t="s">
-        <v>1768</v>
+        <v>1325</v>
       </c>
       <c r="C749" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D749" t="s">
-        <v>105</v>
+        <v>1542</v>
       </c>
       <c r="E749" t="s">
-        <v>1769</v>
+        <v>1326</v>
       </c>
       <c r="F749" t="s">
         <v>35</v>
       </c>
       <c r="G749">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fdca5cbf-4d35-11e8-be0a-1c4d70487308.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917d1d0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J749" t="s">
-        <v>1770</v>
+        <v>1327</v>
       </c>
       <c r="K749" t="s">
-        <v>1471</v>
+        <v>21</v>
       </c>
       <c r="M749" t="s">
         <v>35</v>
@@ -29750,7 +29759,7 @@
         <v>35</v>
       </c>
       <c r="G750">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fdca5cc0-4d35-11e8-be0a-1c4d70487308.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fdca5cbf-4d35-11e8-be0a-1c4d70487308.html","web")</f>
         <v>0</v>
       </c>
       <c r="J750" t="s">
@@ -29774,26 +29783,26 @@
         <v>35</v>
       </c>
       <c r="D751" t="s">
-        <v>1602</v>
+        <v>105</v>
       </c>
       <c r="E751" t="s">
         <v>1775</v>
       </c>
       <c r="F751" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="G751">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e379c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fdca5cc0-4d35-11e8-be0a-1c4d70487308.html","web")</f>
         <v>0</v>
       </c>
       <c r="J751" t="s">
         <v>1776</v>
       </c>
       <c r="K751" t="s">
-        <v>1605</v>
+        <v>1471</v>
       </c>
       <c r="M751" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="752" spans="1:13">
@@ -29807,26 +29816,26 @@
         <v>35</v>
       </c>
       <c r="D752" t="s">
-        <v>172</v>
+        <v>1605</v>
       </c>
       <c r="E752" t="s">
         <v>1778</v>
       </c>
       <c r="F752" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="G752">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f465a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e379c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J752" t="s">
-        <v>1644</v>
+        <v>1779</v>
       </c>
       <c r="K752" t="s">
-        <v>1471</v>
+        <v>1608</v>
       </c>
       <c r="M752" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="753" spans="1:13">
@@ -29834,7 +29843,7 @@
         <v>1467</v>
       </c>
       <c r="B753" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C753" t="s">
         <v>35</v>
@@ -29843,17 +29852,17 @@
         <v>172</v>
       </c>
       <c r="E753" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="F753" t="s">
         <v>95</v>
       </c>
       <c r="G753">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917cf46-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f465a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J753" t="s">
-        <v>1781</v>
+        <v>1647</v>
       </c>
       <c r="K753" t="s">
         <v>1471</v>
@@ -29882,11 +29891,11 @@
         <v>95</v>
       </c>
       <c r="G754">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4cabf9607859a83bcb3bc00fa8d0698c.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917cf46-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J754" t="s">
-        <v>1650</v>
+        <v>1784</v>
       </c>
       <c r="K754" t="s">
         <v>1471</v>
@@ -29900,7 +29909,7 @@
         <v>1467</v>
       </c>
       <c r="B755" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C755" t="s">
         <v>35</v>
@@ -29909,17 +29918,17 @@
         <v>172</v>
       </c>
       <c r="E755" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="F755" t="s">
         <v>95</v>
       </c>
       <c r="G755">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/332db812bf06c7af2de1b9d1e0cf58c9.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4cabf9607859a83bcb3bc00fa8d0698c.html","web")</f>
         <v>0</v>
       </c>
       <c r="J755" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="K755" t="s">
         <v>1471</v>
@@ -29933,32 +29942,32 @@
         <v>1467</v>
       </c>
       <c r="B756" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C756" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D756" t="s">
-        <v>1520</v>
+        <v>172</v>
       </c>
       <c r="E756" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="F756" t="s">
-        <v>518</v>
+        <v>95</v>
       </c>
       <c r="G756">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1146a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/332db812bf06c7af2de1b9d1e0cf58c9.html","web")</f>
         <v>0</v>
       </c>
       <c r="J756" t="s">
-        <v>1788</v>
+        <v>1653</v>
       </c>
       <c r="K756" t="s">
-        <v>1500</v>
+        <v>1471</v>
       </c>
       <c r="M756" t="s">
-        <v>518</v>
+        <v>95</v>
       </c>
     </row>
     <row r="757" spans="1:13">
@@ -29969,29 +29978,29 @@
         <v>1789</v>
       </c>
       <c r="C757" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D757" t="s">
-        <v>1625</v>
+        <v>1520</v>
       </c>
       <c r="E757" t="s">
         <v>1790</v>
       </c>
       <c r="F757" t="s">
-        <v>325</v>
+        <v>518</v>
       </c>
       <c r="G757">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1a90-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f1146a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J757" t="s">
         <v>1791</v>
       </c>
       <c r="K757" t="s">
-        <v>1605</v>
+        <v>1500</v>
       </c>
       <c r="M757" t="s">
-        <v>325</v>
+        <v>518</v>
       </c>
     </row>
     <row r="758" spans="1:13">
@@ -29999,29 +30008,29 @@
         <v>1467</v>
       </c>
       <c r="B758" t="s">
-        <v>1397</v>
+        <v>1792</v>
       </c>
       <c r="C758" t="s">
         <v>35</v>
       </c>
       <c r="D758" t="s">
-        <v>1349</v>
+        <v>1628</v>
       </c>
       <c r="E758" t="s">
-        <v>1398</v>
+        <v>1793</v>
       </c>
       <c r="F758" t="s">
         <v>325</v>
       </c>
       <c r="G758">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/170ff384-b622-11e6-bbe2-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f1a90-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J758" t="s">
-        <v>1399</v>
+        <v>1794</v>
       </c>
       <c r="K758" t="s">
-        <v>1048</v>
+        <v>1608</v>
       </c>
       <c r="M758" t="s">
         <v>325</v>
@@ -30032,7 +30041,7 @@
         <v>1467</v>
       </c>
       <c r="B759" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C759" t="s">
         <v>35</v>
@@ -30041,17 +30050,17 @@
         <v>1349</v>
       </c>
       <c r="E759" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="F759" t="s">
         <v>325</v>
       </c>
       <c r="G759">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1758307c-b622-11e6-bbe2-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/170ff384-b622-11e6-bbe2-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J759" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="K759" t="s">
         <v>1048</v>
@@ -30065,32 +30074,32 @@
         <v>1467</v>
       </c>
       <c r="B760" t="s">
-        <v>1239</v>
+        <v>1400</v>
       </c>
       <c r="C760" t="s">
         <v>35</v>
       </c>
       <c r="D760" t="s">
-        <v>619</v>
+        <v>1349</v>
       </c>
       <c r="E760" t="s">
-        <v>1240</v>
+        <v>1401</v>
       </c>
       <c r="F760" t="s">
-        <v>518</v>
+        <v>325</v>
       </c>
       <c r="G760">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ec6bc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1758307c-b622-11e6-bbe2-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J760" t="s">
-        <v>1241</v>
+        <v>1402</v>
       </c>
       <c r="K760" t="s">
-        <v>1152</v>
+        <v>1048</v>
       </c>
       <c r="M760" t="s">
-        <v>518</v>
+        <v>325</v>
       </c>
     </row>
     <row r="761" spans="1:13">
@@ -30098,7 +30107,7 @@
         <v>1467</v>
       </c>
       <c r="B761" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C761" t="s">
         <v>35</v>
@@ -30107,17 +30116,17 @@
         <v>619</v>
       </c>
       <c r="E761" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="F761" t="s">
         <v>518</v>
       </c>
       <c r="G761">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59135d8a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ec6bc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J761" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="K761" t="s">
         <v>1152</v>
@@ -30131,7 +30140,7 @@
         <v>1467</v>
       </c>
       <c r="B762" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C762" t="s">
         <v>35</v>
@@ -30140,23 +30149,23 @@
         <v>619</v>
       </c>
       <c r="E762" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="F762" t="s">
-        <v>19</v>
+        <v>518</v>
       </c>
       <c r="G762">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dcb0e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59135d8a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J762" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="K762" t="s">
         <v>1152</v>
       </c>
       <c r="M762" t="s">
-        <v>19</v>
+        <v>518</v>
       </c>
     </row>
     <row r="763" spans="1:13">
@@ -30164,29 +30173,29 @@
         <v>1467</v>
       </c>
       <c r="B763" t="s">
-        <v>1792</v>
+        <v>1245</v>
       </c>
       <c r="C763" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D763" t="s">
-        <v>1542</v>
+        <v>619</v>
       </c>
       <c r="E763" t="s">
-        <v>542</v>
+        <v>1246</v>
       </c>
       <c r="F763" t="s">
         <v>19</v>
       </c>
       <c r="G763">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/621681bc7c376de66228fdde13b97516.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590dcb0e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J763" t="s">
-        <v>543</v>
+        <v>1247</v>
       </c>
       <c r="K763" t="s">
-        <v>21</v>
+        <v>1152</v>
       </c>
       <c r="M763" t="s">
         <v>19</v>
@@ -30197,29 +30206,29 @@
         <v>1467</v>
       </c>
       <c r="B764" t="s">
-        <v>1248</v>
+        <v>1795</v>
       </c>
       <c r="C764" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D764" t="s">
-        <v>619</v>
+        <v>1542</v>
       </c>
       <c r="E764" t="s">
-        <v>1249</v>
+        <v>542</v>
       </c>
       <c r="F764" t="s">
         <v>19</v>
       </c>
       <c r="G764">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59143570-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/621681bc7c376de66228fdde13b97516.html","web")</f>
         <v>0</v>
       </c>
       <c r="J764" t="s">
-        <v>1241</v>
+        <v>543</v>
       </c>
       <c r="K764" t="s">
-        <v>1152</v>
+        <v>21</v>
       </c>
       <c r="M764" t="s">
         <v>19</v>
@@ -30230,29 +30239,29 @@
         <v>1467</v>
       </c>
       <c r="B765" t="s">
-        <v>1793</v>
+        <v>1248</v>
       </c>
       <c r="C765" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D765" t="s">
-        <v>1542</v>
+        <v>619</v>
       </c>
       <c r="E765" t="s">
-        <v>967</v>
+        <v>1249</v>
       </c>
       <c r="F765" t="s">
         <v>19</v>
       </c>
       <c r="G765">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917483c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59143570-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J765" t="s">
-        <v>968</v>
+        <v>1241</v>
       </c>
       <c r="K765" t="s">
-        <v>21</v>
+        <v>1152</v>
       </c>
       <c r="M765" t="s">
         <v>19</v>
@@ -30263,29 +30272,29 @@
         <v>1467</v>
       </c>
       <c r="B766" t="s">
-        <v>969</v>
+        <v>1796</v>
       </c>
       <c r="C766" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D766" t="s">
-        <v>619</v>
+        <v>1542</v>
       </c>
       <c r="E766" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="F766" t="s">
         <v>19</v>
       </c>
       <c r="G766">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170a02-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917483c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J766" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="K766" t="s">
-        <v>1152</v>
+        <v>21</v>
       </c>
       <c r="M766" t="s">
         <v>19</v>
@@ -30296,29 +30305,29 @@
         <v>1467</v>
       </c>
       <c r="B767" t="s">
-        <v>1794</v>
+        <v>969</v>
       </c>
       <c r="C767" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D767" t="s">
-        <v>1542</v>
+        <v>619</v>
       </c>
       <c r="E767" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="F767" t="s">
         <v>19</v>
       </c>
       <c r="G767">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59173c0c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170a02-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J767" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="K767" t="s">
-        <v>21</v>
+        <v>1152</v>
       </c>
       <c r="M767" t="s">
         <v>19</v>
@@ -30329,29 +30338,29 @@
         <v>1467</v>
       </c>
       <c r="B768" t="s">
-        <v>975</v>
+        <v>1797</v>
       </c>
       <c r="C768" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D768" t="s">
-        <v>619</v>
+        <v>1542</v>
       </c>
       <c r="E768" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="F768" t="s">
         <v>19</v>
       </c>
       <c r="G768">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d86e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59173c0c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J768" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="K768" t="s">
-        <v>1152</v>
+        <v>21</v>
       </c>
       <c r="M768" t="s">
         <v>19</v>
@@ -30362,7 +30371,7 @@
         <v>1467</v>
       </c>
       <c r="B769" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C769" t="s">
         <v>35</v>
@@ -30371,17 +30380,17 @@
         <v>619</v>
       </c>
       <c r="E769" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F769" t="s">
         <v>19</v>
       </c>
       <c r="G769">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d602-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d86e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J769" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="K769" t="s">
         <v>1152</v>
@@ -30395,32 +30404,32 @@
         <v>1467</v>
       </c>
       <c r="B770" t="s">
-        <v>1795</v>
+        <v>978</v>
       </c>
       <c r="C770" t="s">
         <v>35</v>
       </c>
       <c r="D770" t="s">
-        <v>1602</v>
+        <v>619</v>
       </c>
       <c r="E770" t="s">
-        <v>1796</v>
+        <v>979</v>
       </c>
       <c r="F770" t="s">
-        <v>325</v>
+        <v>19</v>
       </c>
       <c r="G770">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e417e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913d602-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J770" t="s">
-        <v>1797</v>
+        <v>980</v>
       </c>
       <c r="K770" t="s">
-        <v>1605</v>
+        <v>1152</v>
       </c>
       <c r="M770" t="s">
-        <v>325</v>
+        <v>19</v>
       </c>
     </row>
     <row r="771" spans="1:13">
@@ -30434,26 +30443,26 @@
         <v>35</v>
       </c>
       <c r="D771" t="s">
-        <v>172</v>
+        <v>1605</v>
       </c>
       <c r="E771" t="s">
         <v>1799</v>
       </c>
       <c r="F771" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
       <c r="G771">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e417e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J771" t="s">
         <v>1800</v>
       </c>
       <c r="K771" t="s">
-        <v>21</v>
+        <v>1608</v>
       </c>
       <c r="M771" t="s">
-        <v>163</v>
+        <v>325</v>
       </c>
     </row>
     <row r="772" spans="1:13">
@@ -30461,32 +30470,32 @@
         <v>1467</v>
       </c>
       <c r="B772" t="s">
-        <v>409</v>
+        <v>1801</v>
       </c>
       <c r="C772" t="s">
         <v>35</v>
       </c>
       <c r="D772" t="s">
-        <v>1011</v>
+        <v>172</v>
       </c>
       <c r="E772" t="s">
-        <v>23</v>
+        <v>1802</v>
       </c>
       <c r="F772" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="G772">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e85a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59177dc0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J772" t="s">
-        <v>25</v>
+        <v>1803</v>
       </c>
       <c r="K772" t="s">
-        <v>1801</v>
+        <v>21</v>
       </c>
       <c r="M772" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
     </row>
     <row r="773" spans="1:13">
@@ -30494,7 +30503,7 @@
         <v>1467</v>
       </c>
       <c r="B773" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C773" t="s">
         <v>35</v>
@@ -30503,20 +30512,20 @@
         <v>1011</v>
       </c>
       <c r="E773" t="s">
-        <v>411</v>
+        <v>23</v>
       </c>
       <c r="F773" t="s">
         <v>24</v>
       </c>
       <c r="G773">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ed5a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e85a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J773" t="s">
-        <v>412</v>
+        <v>25</v>
       </c>
       <c r="K773" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="M773" t="s">
         <v>24</v>
@@ -30527,32 +30536,32 @@
         <v>1467</v>
       </c>
       <c r="B774" t="s">
-        <v>71</v>
+        <v>410</v>
       </c>
       <c r="C774" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D774" t="s">
-        <v>172</v>
+        <v>1011</v>
       </c>
       <c r="E774" t="s">
-        <v>73</v>
+        <v>411</v>
       </c>
       <c r="F774" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="G774">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170cbe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ed5a8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J774" t="s">
-        <v>74</v>
+        <v>412</v>
       </c>
       <c r="K774" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="M774" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="775" spans="1:13">
@@ -30560,7 +30569,7 @@
         <v>1467</v>
       </c>
       <c r="B775" t="s">
-        <v>1803</v>
+        <v>71</v>
       </c>
       <c r="C775" t="s">
         <v>55</v>
@@ -30569,20 +30578,20 @@
         <v>172</v>
       </c>
       <c r="E775" t="s">
-        <v>1804</v>
+        <v>73</v>
       </c>
       <c r="F775" t="s">
         <v>69</v>
       </c>
       <c r="G775">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917d9fa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170cbe-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J775" t="s">
+        <v>74</v>
+      </c>
+      <c r="K775" t="s">
         <v>1805</v>
-      </c>
-      <c r="K775" t="s">
-        <v>1475</v>
       </c>
       <c r="M775" t="s">
         <v>69</v>
@@ -30608,7 +30617,7 @@
         <v>69</v>
       </c>
       <c r="G776">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591384a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917d9fa-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J776" t="s">
@@ -30641,14 +30650,14 @@
         <v>69</v>
       </c>
       <c r="G777">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0430a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591384a4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J777" t="s">
         <v>1811</v>
       </c>
       <c r="K777" t="s">
-        <v>1500</v>
+        <v>1475</v>
       </c>
       <c r="M777" t="s">
         <v>69</v>
@@ -30674,14 +30683,14 @@
         <v>69</v>
       </c>
       <c r="G778">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174aa8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/84f0430a-acb7-11e6-b5ee-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J778" t="s">
         <v>1814</v>
       </c>
       <c r="K778" t="s">
-        <v>1475</v>
+        <v>1500</v>
       </c>
       <c r="M778" t="s">
         <v>69</v>
@@ -30695,7 +30704,7 @@
         <v>1815</v>
       </c>
       <c r="C779" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D779" t="s">
         <v>172</v>
@@ -30704,20 +30713,20 @@
         <v>1816</v>
       </c>
       <c r="F779" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="G779">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59174aa8-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J779" t="s">
         <v>1817</v>
       </c>
       <c r="K779" t="s">
-        <v>21</v>
+        <v>1475</v>
       </c>
       <c r="M779" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
     </row>
     <row r="780" spans="1:13">
@@ -30725,32 +30734,32 @@
         <v>1467</v>
       </c>
       <c r="B780" t="s">
-        <v>985</v>
+        <v>1818</v>
       </c>
       <c r="C780" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D780" t="s">
-        <v>1011</v>
+        <v>172</v>
       </c>
       <c r="E780" t="s">
-        <v>27</v>
+        <v>1819</v>
       </c>
       <c r="F780" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="G780">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170700-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591306a0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J780" t="s">
-        <v>28</v>
+        <v>1820</v>
       </c>
       <c r="K780" t="s">
-        <v>959</v>
+        <v>21</v>
       </c>
       <c r="M780" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
     </row>
     <row r="781" spans="1:13">
@@ -30758,7 +30767,7 @@
         <v>1467</v>
       </c>
       <c r="B781" t="s">
-        <v>1818</v>
+        <v>985</v>
       </c>
       <c r="C781" t="s">
         <v>55</v>
@@ -30767,17 +30776,17 @@
         <v>1011</v>
       </c>
       <c r="E781" t="s">
-        <v>1819</v>
+        <v>27</v>
       </c>
       <c r="F781" t="s">
         <v>24</v>
       </c>
       <c r="G781">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59140c12-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59170700-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J781" t="s">
-        <v>1820</v>
+        <v>28</v>
       </c>
       <c r="K781" t="s">
         <v>959</v>
@@ -30797,26 +30806,26 @@
         <v>55</v>
       </c>
       <c r="D782" t="s">
-        <v>172</v>
+        <v>1011</v>
       </c>
       <c r="E782" t="s">
         <v>1822</v>
       </c>
       <c r="F782" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
       <c r="G782">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a070-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59140c12-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J782" t="s">
         <v>1823</v>
       </c>
       <c r="K782" t="s">
-        <v>1475</v>
+        <v>959</v>
       </c>
       <c r="M782" t="s">
-        <v>202</v>
+        <v>24</v>
       </c>
     </row>
     <row r="783" spans="1:13">
@@ -30839,14 +30848,14 @@
         <v>202</v>
       </c>
       <c r="G783">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ec93c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917a070-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J783" t="s">
         <v>1826</v>
       </c>
       <c r="K783" t="s">
-        <v>1500</v>
+        <v>1475</v>
       </c>
       <c r="M783" t="s">
         <v>202</v>
@@ -30872,7 +30881,7 @@
         <v>202</v>
       </c>
       <c r="G784">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8fca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590ec93c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J784" t="s">
@@ -30896,26 +30905,26 @@
         <v>55</v>
       </c>
       <c r="D785" t="s">
+        <v>172</v>
+      </c>
+      <c r="E785" t="s">
         <v>1831</v>
       </c>
-      <c r="E785" t="s">
+      <c r="F785" t="s">
+        <v>202</v>
+      </c>
+      <c r="G785">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590f8fca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="J785" t="s">
         <v>1832</v>
       </c>
-      <c r="F785" t="s">
-        <v>42</v>
-      </c>
-      <c r="G785">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147ddc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="J785" t="s">
-        <v>1833</v>
-      </c>
       <c r="K785" t="s">
-        <v>1834</v>
+        <v>1500</v>
       </c>
       <c r="M785" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
     </row>
     <row r="786" spans="1:13">
@@ -30923,32 +30932,32 @@
         <v>1467</v>
       </c>
       <c r="B786" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="C786" t="s">
         <v>55</v>
       </c>
       <c r="D786" t="s">
-        <v>172</v>
+        <v>1834</v>
       </c>
       <c r="E786" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F786" t="s">
+        <v>42</v>
+      </c>
+      <c r="G786">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147ddc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="J786" t="s">
         <v>1836</v>
       </c>
-      <c r="F786" t="s">
-        <v>69</v>
-      </c>
-      <c r="G786">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913c4dc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="J786" t="s">
+      <c r="K786" t="s">
         <v>1837</v>
       </c>
-      <c r="K786" t="s">
-        <v>1500</v>
-      </c>
       <c r="M786" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="787" spans="1:13">
@@ -30956,32 +30965,32 @@
         <v>1467</v>
       </c>
       <c r="B787" t="s">
-        <v>986</v>
+        <v>1838</v>
       </c>
       <c r="C787" t="s">
         <v>55</v>
       </c>
       <c r="D787" t="s">
-        <v>619</v>
+        <v>172</v>
       </c>
       <c r="E787" t="s">
-        <v>987</v>
+        <v>1839</v>
       </c>
       <c r="F787" t="s">
-        <v>349</v>
+        <v>69</v>
       </c>
       <c r="G787">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591472f6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5913c4dc-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J787" t="s">
-        <v>988</v>
+        <v>1840</v>
       </c>
       <c r="K787" t="s">
-        <v>21</v>
+        <v>1500</v>
       </c>
       <c r="M787" t="s">
-        <v>349</v>
+        <v>69</v>
       </c>
     </row>
     <row r="788" spans="1:13">
@@ -30989,7 +30998,7 @@
         <v>1467</v>
       </c>
       <c r="B788" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C788" t="s">
         <v>55</v>
@@ -30998,17 +31007,17 @@
         <v>619</v>
       </c>
       <c r="E788" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="F788" t="s">
         <v>349</v>
       </c>
       <c r="G788">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59132e1e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591472f6-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J788" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="K788" t="s">
         <v>21</v>
@@ -31017,64 +31026,64 @@
         <v>349</v>
       </c>
     </row>
-    <row r="790" spans="1:13">
-      <c r="A790" t="s">
-        <v>1838</v>
-      </c>
-      <c r="B790" t="s">
-        <v>304</v>
-      </c>
-      <c r="C790" t="s">
+    <row r="789" spans="1:13">
+      <c r="A789" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B789" t="s">
+        <v>989</v>
+      </c>
+      <c r="C789" t="s">
         <v>55</v>
       </c>
-      <c r="D790" t="s">
-        <v>1839</v>
-      </c>
-      <c r="E790" t="s">
-        <v>306</v>
-      </c>
-      <c r="F790" t="s">
-        <v>202</v>
-      </c>
-      <c r="G790">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147580-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="J790" t="s">
-        <v>307</v>
-      </c>
-      <c r="K790" t="s">
-        <v>91</v>
-      </c>
-      <c r="M790" t="s">
-        <v>202</v>
+      <c r="D789" t="s">
+        <v>619</v>
+      </c>
+      <c r="E789" t="s">
+        <v>990</v>
+      </c>
+      <c r="F789" t="s">
+        <v>349</v>
+      </c>
+      <c r="G789">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59132e1e-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="J789" t="s">
+        <v>991</v>
+      </c>
+      <c r="K789" t="s">
+        <v>21</v>
+      </c>
+      <c r="M789" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="791" spans="1:13">
       <c r="A791" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="B791" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C791" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D791" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="E791" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F791" t="s">
         <v>202</v>
       </c>
       <c r="G791">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e1c1c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147580-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J791" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K791" t="s">
         <v>91</v>
@@ -31085,29 +31094,29 @@
     </row>
     <row r="792" spans="1:13">
       <c r="A792" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="B792" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C792" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D792" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="E792" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F792" t="s">
         <v>202</v>
       </c>
       <c r="G792">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41460524-4f40-11e6-a814-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e1c1c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J792" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K792" t="s">
         <v>91</v>
@@ -31118,29 +31127,29 @@
     </row>
     <row r="793" spans="1:13">
       <c r="A793" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="B793" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C793" t="s">
         <v>55</v>
       </c>
       <c r="D793" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="E793" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F793" t="s">
         <v>202</v>
       </c>
       <c r="G793">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4145ad04-4f40-11e6-a814-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41460524-4f40-11e6-a814-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J793" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K793" t="s">
         <v>91</v>
@@ -31151,29 +31160,29 @@
     </row>
     <row r="794" spans="1:13">
       <c r="A794" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="B794" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C794" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D794" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="E794" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F794" t="s">
         <v>202</v>
       </c>
       <c r="G794">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e4e58-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4145ad04-4f40-11e6-a814-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J794" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K794" t="s">
         <v>91</v>
@@ -31184,29 +31193,29 @@
     </row>
     <row r="795" spans="1:13">
       <c r="A795" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="B795" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C795" t="s">
         <v>16</v>
       </c>
       <c r="D795" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="E795" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F795" t="s">
         <v>202</v>
       </c>
       <c r="G795">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130394-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590e4e58-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J795" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K795" t="s">
         <v>91</v>
@@ -31217,62 +31226,62 @@
     </row>
     <row r="796" spans="1:13">
       <c r="A796" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="B796" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C796" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D796" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="E796" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F796" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
       <c r="G796">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4144f026-4f40-11e6-a814-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59130394-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J796" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K796" t="s">
         <v>91</v>
       </c>
       <c r="M796" t="s">
-        <v>325</v>
+        <v>202</v>
       </c>
     </row>
     <row r="797" spans="1:13">
       <c r="A797" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="B797" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C797" t="s">
         <v>55</v>
       </c>
       <c r="D797" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="E797" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F797" t="s">
         <v>325</v>
       </c>
       <c r="G797">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4144a01c-4f40-11e6-a814-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4144f026-4f40-11e6-a814-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J797" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K797" t="s">
         <v>91</v>
@@ -31283,29 +31292,29 @@
     </row>
     <row r="798" spans="1:13">
       <c r="A798" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="B798" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C798" t="s">
         <v>55</v>
       </c>
       <c r="D798" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="E798" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F798" t="s">
         <v>325</v>
       </c>
       <c r="G798">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/14277100-b574-11e6-9ed4-5404a60d96b5.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/4144a01c-4f40-11e6-a814-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J798" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K798" t="s">
         <v>91</v>
@@ -31316,62 +31325,62 @@
     </row>
     <row r="799" spans="1:13">
       <c r="A799" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="B799" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C799" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D799" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="E799" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F799" t="s">
-        <v>202</v>
+        <v>325</v>
       </c>
       <c r="G799">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41455e80-4f40-11e6-a814-ac72891c3257.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/14277100-b574-11e6-9ed4-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="J799" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K799" t="s">
         <v>91</v>
       </c>
       <c r="M799" t="s">
-        <v>202</v>
+        <v>325</v>
       </c>
     </row>
     <row r="800" spans="1:13">
       <c r="A800" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="B800" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C800" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D800" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="E800" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F800" t="s">
         <v>202</v>
       </c>
       <c r="G800">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59150216-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/41455e80-4f40-11e6-a814-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J800" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K800" t="s">
         <v>91</v>
@@ -31382,29 +31391,29 @@
     </row>
     <row r="801" spans="1:13">
       <c r="A801" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="B801" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C801" t="s">
         <v>55</v>
       </c>
       <c r="D801" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="E801" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F801" t="s">
         <v>202</v>
       </c>
       <c r="G801">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912a516-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59150216-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J801" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K801" t="s">
         <v>91</v>
@@ -31413,67 +31422,67 @@
         <v>202</v>
       </c>
     </row>
-    <row r="803" spans="1:13">
-      <c r="A803" t="s">
-        <v>1840</v>
-      </c>
-      <c r="B803" t="s">
+    <row r="802" spans="1:13">
+      <c r="A802" t="s">
         <v>1841</v>
       </c>
-      <c r="C803" t="s">
-        <v>35</v>
-      </c>
-      <c r="D803" t="s">
+      <c r="B802" t="s">
+        <v>339</v>
+      </c>
+      <c r="C802" t="s">
+        <v>55</v>
+      </c>
+      <c r="D802" t="s">
         <v>1842</v>
       </c>
-      <c r="E803" t="s">
-        <v>1843</v>
-      </c>
-      <c r="F803" t="s">
-        <v>42</v>
-      </c>
-      <c r="G803">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="J803" t="s">
-        <v>1844</v>
-      </c>
-      <c r="K803" t="s">
-        <v>1845</v>
-      </c>
-      <c r="M803" t="s">
-        <v>42</v>
+      <c r="E802" t="s">
+        <v>340</v>
+      </c>
+      <c r="F802" t="s">
+        <v>202</v>
+      </c>
+      <c r="G802">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5912a516-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="J802" t="s">
+        <v>341</v>
+      </c>
+      <c r="K802" t="s">
+        <v>91</v>
+      </c>
+      <c r="M802" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="804" spans="1:13">
       <c r="A804" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="B804" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C804" t="s">
+        <v>35</v>
+      </c>
+      <c r="D804" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E804" t="s">
         <v>1846</v>
-      </c>
-      <c r="C804" t="s">
-        <v>55</v>
-      </c>
-      <c r="D804" t="s">
-        <v>1847</v>
-      </c>
-      <c r="E804" t="s">
-        <v>1848</v>
       </c>
       <c r="F804" t="s">
         <v>42</v>
       </c>
       <c r="G804">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59136b72-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J804" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="K804" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="M804" t="s">
         <v>42</v>
@@ -31481,32 +31490,32 @@
     </row>
     <row r="805" spans="1:13">
       <c r="A805" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="B805" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="C805" t="s">
         <v>55</v>
       </c>
       <c r="D805" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="E805" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="F805" t="s">
         <v>42</v>
       </c>
       <c r="G805">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/2ca96cd5a4e83feb0d493bf9aa1a5b59.html","web")</f>
         <v>0</v>
       </c>
       <c r="J805" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="K805" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="M805" t="s">
         <v>42</v>
@@ -31514,65 +31523,65 @@
     </row>
     <row r="806" spans="1:13">
       <c r="A806" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="B806" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C806" t="s">
+        <v>55</v>
+      </c>
+      <c r="D806" t="s">
         <v>1855</v>
-      </c>
-      <c r="C806" t="s">
-        <v>35</v>
-      </c>
-      <c r="D806" t="s">
-        <v>172</v>
       </c>
       <c r="E806" t="s">
         <v>1856</v>
       </c>
       <c r="F806" t="s">
-        <v>202</v>
+        <v>42</v>
       </c>
       <c r="G806">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/351c26a0f5a0cefa8f1183f2f12e1aa3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J806" t="s">
         <v>1857</v>
       </c>
       <c r="K806" t="s">
-        <v>1858</v>
+        <v>1853</v>
       </c>
       <c r="M806" t="s">
-        <v>202</v>
+        <v>42</v>
       </c>
     </row>
     <row r="807" spans="1:13">
       <c r="A807" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="B807" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C807" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D807" t="s">
         <v>172</v>
       </c>
       <c r="E807" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="F807" t="s">
         <v>202</v>
       </c>
       <c r="G807">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15fea217c64dbec48b115765548b89ae.html","web")</f>
         <v>0</v>
       </c>
       <c r="J807" t="s">
+        <v>1860</v>
+      </c>
+      <c r="K807" t="s">
         <v>1861</v>
-      </c>
-      <c r="K807" t="s">
-        <v>1862</v>
       </c>
       <c r="M807" t="s">
         <v>202</v>
@@ -31580,10 +31589,10 @@
     </row>
     <row r="808" spans="1:13">
       <c r="A808" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="B808" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C808" t="s">
         <v>55</v>
@@ -31592,20 +31601,20 @@
         <v>172</v>
       </c>
       <c r="E808" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="F808" t="s">
         <v>202</v>
       </c>
       <c r="G808">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/df06d844bd95ddd2f0f62f54941c4b88.html","web")</f>
         <v>0</v>
       </c>
       <c r="J808" t="s">
+        <v>1864</v>
+      </c>
+      <c r="K808" t="s">
         <v>1865</v>
-      </c>
-      <c r="K808" t="s">
-        <v>1862</v>
       </c>
       <c r="M808" t="s">
         <v>202</v>
@@ -31613,7 +31622,7 @@
     </row>
     <row r="809" spans="1:13">
       <c r="A809" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="B809" t="s">
         <v>1866</v>
@@ -31631,14 +31640,14 @@
         <v>202</v>
       </c>
       <c r="G809">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/091b217c2450d012fb2e192dee04053f.html","web")</f>
         <v>0</v>
       </c>
       <c r="J809" t="s">
         <v>1868</v>
       </c>
       <c r="K809" t="s">
-        <v>1508</v>
+        <v>1865</v>
       </c>
       <c r="M809" t="s">
         <v>202</v>
@@ -31646,7 +31655,7 @@
     </row>
     <row r="810" spans="1:13">
       <c r="A810" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="B810" t="s">
         <v>1869</v>
@@ -31655,53 +31664,53 @@
         <v>55</v>
       </c>
       <c r="D810" t="s">
+        <v>172</v>
+      </c>
+      <c r="E810" t="s">
         <v>1870</v>
       </c>
-      <c r="E810" t="s">
+      <c r="F810" t="s">
+        <v>202</v>
+      </c>
+      <c r="G810">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/fb5bd0286cdca991d0f67c498513f602.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="J810" t="s">
         <v>1871</v>
-      </c>
-      <c r="F810" t="s">
-        <v>42</v>
-      </c>
-      <c r="G810">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
-        <v>0</v>
-      </c>
-      <c r="J810" t="s">
-        <v>1872</v>
       </c>
       <c r="K810" t="s">
         <v>1508</v>
       </c>
       <c r="M810" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
     </row>
     <row r="811" spans="1:13">
       <c r="A811" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="B811" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C811" t="s">
         <v>55</v>
       </c>
       <c r="D811" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E811" t="s">
         <v>1874</v>
-      </c>
-      <c r="E811" t="s">
-        <v>1875</v>
       </c>
       <c r="F811" t="s">
         <v>42</v>
       </c>
       <c r="G811">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/374e24b1cf7c24eb75126ea6e39ac478.html","web")</f>
         <v>0</v>
       </c>
       <c r="J811" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="K811" t="s">
         <v>1508</v>
@@ -31712,29 +31721,29 @@
     </row>
     <row r="812" spans="1:13">
       <c r="A812" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="B812" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C812" t="s">
         <v>55</v>
       </c>
       <c r="D812" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E812" t="s">
         <v>1878</v>
-      </c>
-      <c r="E812" t="s">
-        <v>1879</v>
       </c>
       <c r="F812" t="s">
         <v>42</v>
       </c>
       <c r="G812">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/1e93ae651487e683206b923c11fd6db1.html","web")</f>
         <v>0</v>
       </c>
       <c r="J812" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="K812" t="s">
         <v>1508</v>
@@ -31745,34 +31754,67 @@
     </row>
     <row r="813" spans="1:13">
       <c r="A813" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="B813" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C813" t="s">
         <v>55</v>
       </c>
       <c r="D813" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E813" t="s">
         <v>1882</v>
-      </c>
-      <c r="E813" t="s">
-        <v>1883</v>
       </c>
       <c r="F813" t="s">
         <v>42</v>
       </c>
       <c r="G813">
-        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/e9289080901a39eba6ade178d596795a.html","web")</f>
         <v>0</v>
       </c>
       <c r="J813" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="K813" t="s">
         <v>1508</v>
       </c>
       <c r="M813" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="814" spans="1:13">
+      <c r="A814" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C814" t="s">
+        <v>55</v>
+      </c>
+      <c r="D814" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E814" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F814" t="s">
+        <v>42</v>
+      </c>
+      <c r="G814">
+        <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/b28e47214f0b71847c966828df0837ff.html","web")</f>
+        <v>0</v>
+      </c>
+      <c r="J814" t="s">
+        <v>1887</v>
+      </c>
+      <c r="K814" t="s">
+        <v>1508</v>
+      </c>
+      <c r="M814" t="s">
         <v>42</v>
       </c>
     </row>

--- a/ece2cmor3/scripts/create-nemo-only-list/nemo-miss-list-cmpi6-requested-variables.xlsx
+++ b/ece2cmor3/scripts/create-nemo-only-list/nemo-miss-list-cmpi6-requested-variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6393" uniqueCount="1780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6393" uniqueCount="1782">
   <si>
     <t>Table</t>
   </si>
@@ -559,7 +559,7 @@
     <t>fg13co2</t>
   </si>
   <si>
-    <t>Surface Downward Flux of 13CO2</t>
+    <t>Surface Downward Mass Flux of Carbon-13 as 13CO2 [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>kg m-2 s-1</t>
@@ -571,7 +571,7 @@
     <t>fg14co2abio</t>
   </si>
   <si>
-    <t>Surface Downward Flux of Abiotic 14CO2</t>
+    <t>Surface Downward Mass Flux of Carbon-14 as Abiotic 14CO2 [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>Gas exchange flux of abiotic 14CO2 (positive into ocean)</t>
@@ -580,7 +580,7 @@
     <t>fgco2abio</t>
   </si>
   <si>
-    <t>Surface Downward Flux of Abiotic CO2</t>
+    <t>Surface Downward Mass Flux of Carbon as Abiotic CO2 [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>Gas exchange flux of abiotic CO2 (positive into ocean)</t>
@@ -589,7 +589,7 @@
     <t>fgco2nat</t>
   </si>
   <si>
-    <t>Surface Downward Flux of Natural CO2</t>
+    <t>Surface Downward Mass Flux of Carbon as Natural CO2 [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>Gas exchange flux of natural CO2 (positive into ocean)</t>
@@ -1120,18 +1120,18 @@
     <t>m s-1 d-1</t>
   </si>
   <si>
+    <t>Tendency of zonally averaged eastward wind, by the residual northward wind advection (on the native model grid). Reference: Andrews et al (1987): Middle Atmospheric Dynamics. Academic Press.</t>
+  </si>
+  <si>
+    <t>utendwtem</t>
+  </si>
+  <si>
+    <t>Tendency of Eastward Wind Due to TEM Upward Advection</t>
+  </si>
+  <si>
     <t>Tendency of zonally averaged eastward wind, by the residual upward wind advection (on the native model grid). Reference: Andrews et al (1987): Middle Atmospheric Dynamics. Academic Press.</t>
   </si>
   <si>
-    <t>utendwtem</t>
-  </si>
-  <si>
-    <t>Tendency of Eastward Wind Due to TEM Upward Advection</t>
-  </si>
-  <si>
-    <t>Tendency of zonally averaged eastward wind, by the residual northward wind advection (on the native model grid). Reference: Andrews et al (1987): Middle Atmospheric Dynamics. Academic Press.</t>
-  </si>
-  <si>
     <t>vtem</t>
   </si>
   <si>
@@ -1150,7 +1150,7 @@
     <t>Transformed Eulerian Mean Upward Wind</t>
   </si>
   <si>
-    <t>Transformed Eulerian Mean Diagnostics w*, meridional component of the residual meridional circulation (v*, w*) derived from 6 hr or higher frequency data fields (use instantaneous daily fields or 12 hr fields if the 6 hr data are not available). Scale height: 6950 m</t>
+    <t>Transformed Eulerian Mean Diagnostics w*, upward component of the residual meridional circulation (v*, w*) derived from 6 hr or higher frequency data fields (use instantaneous daily fields or 12 hr fields if the 6 hr data are not available). Scale height: 6950 m</t>
   </si>
   <si>
     <t>LImon</t>
@@ -1285,7 +1285,7 @@
     <t>fco2fos</t>
   </si>
   <si>
-    <t>Carbon Mass Flux into Atmosphere Due to Fossil Fuel Emissions of CO2</t>
+    <t>Carbon Mass Flux into Atmosphere Due to Fossil Fuel Emissions of CO2 [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>This is the prescribed anthropogenic CO2 flux from fossil fuel use, including cement production, and flaring (but not from land-use changes, agricultural burning, forest regrowth, etc.)</t>
@@ -3955,10 +3955,13 @@
     <t>latitude time p100</t>
   </si>
   <si>
-    <t>Northward Heat Flux Due to Eddies</t>
-  </si>
-  <si>
-    <t>Zonally averaged meridional heat flux at 100hPa as monthly means derived from daily (or higher frequency) fields.</t>
+    <t>Northward Eddy Temperature Flux</t>
+  </si>
+  <si>
+    <t>K m s-1</t>
+  </si>
+  <si>
+    <t>Zonally averaged eddy temperature flux at 100hPa as monthly means derived from daily (or higher frequency) fields.</t>
   </si>
   <si>
     <t>CF3hr</t>
@@ -4507,7 +4510,7 @@
     <t>fg14co2</t>
   </si>
   <si>
-    <t>Total Surface Downward Flux of 14CO2 into Ocean</t>
+    <t>Surface Downward Mass Flux of Carbon-14 as 14CO2 [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>Gas exchange flux of carbon-14 as CO2 (positive into ocean)</t>
@@ -4516,7 +4519,7 @@
     <t>gppShrub</t>
   </si>
   <si>
-    <t>Gross Primary Production on Shrub Tiles</t>
+    <t>Gross Primary Production on Shrub Tiles as Carbon Mass Flux [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>Total GPP of shrubs in the grid cell</t>
@@ -4525,7 +4528,7 @@
     <t>gppc13</t>
   </si>
   <si>
-    <t>Mass Flux of 13C out of Atmosphere Due to Gross Primary Production on Land</t>
+    <t>Carbon-13 Mass Flux out of Atmosphere Due to Gross Primary Production on Land [kgC m-2 s-1]</t>
   </si>
   <si>
     <t xml:space="preserve">The rate of synthesis of carbon-13 in biomass from inorganic precursors by autotrophs ('producers') expressed as the mass of carbon which it contains. For example, photosynthesis in plants or phytoplankton. The producers also respire some of this biomass and the difference is referred to as the net primary production. </t>
@@ -4534,7 +4537,7 @@
     <t>gppc14</t>
   </si>
   <si>
-    <t>Mass Flux of 14C out of Atmosphere Due to Gross Primary Production on Land</t>
+    <t>Carbon-14 Mass Flux out of Atmosphere Due to Gross Primary Production on Land [kgC m-2 s-1]</t>
   </si>
   <si>
     <t xml:space="preserve">The rate of synthesis of carbon-14 in biomass from inorganic precursors by autotrophs ('producers') expressed as the mass of carbon which it contains. For example, photosynthesis in plants or phytoplankton. The producers also respire some of this biomass and the difference is referred to as the net primary production. </t>
@@ -4675,7 +4678,7 @@
     <t>netAtmosLandC13Flux</t>
   </si>
   <si>
-    <t>Net Mass Flux of 13C Between Atmosphere and Land (Positive into Land) as a Result of All Processes</t>
+    <t>Net Mass Flux of 13C Between Atmosphere and Land (Positive into Land) as a Result of All Processes [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>Flux of carbon 31as carbon dioxide into the land. This flux should be reproducible by differencing the sum of all carbon pools (cVeg, cLitter, cSoil, and cProducts or equivalently cLand) from one time step to the next, except in the case of lateral transfer of carbon due to harvest, riverine transport of dissolved organic and/or inorganic carbon, or any other process (in which case the lateral_carbon_transfer_over_land term, see below, will be zero data).-</t>
@@ -4684,7 +4687,7 @@
     <t>netAtmosLandC14Flux</t>
   </si>
   <si>
-    <t>Net Mass Flux of 14C Between Atmosphere and Land (Positive into Land) as a Result of All Processes</t>
+    <t>Net Mass Flux of 14C Between Atmosphere and Land (Positive into Land) as a Result of All Processes [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>Flux of carbon-14 as carbon dioxide into the land. This flux should be reproducible by differencing the sum of all carbon pools (cVeg, cLitter, cSoil, and cProducts or equivalently cLand) from one time step to the next, except in the case of lateral transfer of carbon due to harvest, riverine transport of dissolved organic and/or inorganic carbon, or any other process (in which case the lateral_carbon_transfer_over_land term, see below, will be zero data).</t>
@@ -4693,7 +4696,7 @@
     <t>nppOther</t>
   </si>
   <si>
-    <t>Net Primary Production Allocated to Other Pools (not Leaves Stem or Roots)</t>
+    <t>Net Primary Production Allocated to Other Pools (not Leaves Stem or Roots) as Carbon Mass Flux [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>added for completeness with npp_root</t>
@@ -4702,7 +4705,7 @@
     <t>nppShrub</t>
   </si>
   <si>
-    <t>Net Primary Production on Shrub Tiles</t>
+    <t>Net Primary Production on Shrub Tiles as Carbon Mass Flux [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>Total NPP of shrubs in the grid cell</t>
@@ -4711,7 +4714,7 @@
     <t>nppStem</t>
   </si>
   <si>
-    <t>Net Primary Production Allocated to Stem</t>
+    <t>Net Primary Production Allocated to Stem as Carbon Mass Flux [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>FAFMIP</t>
@@ -4879,7 +4882,7 @@
     <t>raShrub</t>
   </si>
   <si>
-    <t>Autotrophic Respiration on Shrub Tiles</t>
+    <t>Autotrophic Respiration on Shrub Tiles as Carbon Mass Flux [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>Total RA of shrubs in the grid cell</t>
@@ -4888,7 +4891,7 @@
     <t>rac13</t>
   </si>
   <si>
-    <t>Mass Flux of 13C into Atmosphere Due to Autotrophic (Plant) Respiration on Land</t>
+    <t>Carbon-13 Mass Flux into Atmosphere Due to Autotrophic (Plant) Respiration on Land [kgC m-2 s-1]</t>
   </si>
   <si>
     <t xml:space="preserve">Flux of carbon-13 into the atmosphere due to plant respiration. Plant respiration is the sum of respiration by parts of plants both above and below the soil. It is assumed that all the respired carbon dioxide is emitted to the atmosphere. </t>
@@ -4897,7 +4900,7 @@
     <t>rac14</t>
   </si>
   <si>
-    <t>Mass Flux of 14C into Atmosphere Due to Autotrophic (Plant) Respiration on Land</t>
+    <t>Carbon-14 Mass Flux into Atmosphere Due to Autotrophic (Plant) Respiration on Land [kgC m-2 s-1]</t>
   </si>
   <si>
     <t xml:space="preserve">Flux of carbon-14 into the atmosphere due to plant respiration. Plant respiration is the sum of respiration by parts of plants both above and below the soil. It is assumed that all the respired carbon dioxide is emitted to the atmosphere. </t>
@@ -4909,7 +4912,7 @@
     <t>rhGrass</t>
   </si>
   <si>
-    <t>Heterotrophic Respiration on Grass Tiles</t>
+    <t>Heterotrophic Respiration on Grass Tiles as Carbon Mass Flux [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>Total RH of grass in the grid cell</t>
@@ -4918,7 +4921,7 @@
     <t>rhShrub</t>
   </si>
   <si>
-    <t>Heterotrophic Respiration on Shrub Tiles</t>
+    <t>Heterotrophic Respiration on Shrub Tiles as Carbon Mass Flux [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>Total RH of shrubs in the grid cell</t>
@@ -4927,7 +4930,7 @@
     <t>rhTree</t>
   </si>
   <si>
-    <t>Heterotrophic Respiration on Tree Tiles</t>
+    <t>Heterotrophic Respiration on Tree Tiles as Carbon Mass Flux [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>Total RH of trees in the grid cell</t>
@@ -4936,7 +4939,7 @@
     <t>rhc13</t>
   </si>
   <si>
-    <t>Mass Flux of 13C into Atmosphere Due to Heterotrophic Respiration on Land</t>
+    <t>Carbon-13 Mass Flux into Atmosphere Due to Heterotrophic Respiration on Land [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>Heterotrophic respiration is respiration by heterotrophs ('consumers'), which are organisms (including animals and decomposers) that consume other organisms or dead organic material, rather than synthesising organic material from inorganic precursors using energy from the environment (especially sunlight) as autotrophs ('producers') do. Heterotrophic respiration goes on within both the soil and litter pools.</t>
@@ -4945,7 +4948,7 @@
     <t>rhc14</t>
   </si>
   <si>
-    <t>Mass Flux of 14C into Atmosphere Due to Heterotrophic Respiration on Land</t>
+    <t>Carbon-14 Mass Flux into Atmosphere Due to Heterotrophic Respiration on Land [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>rlusLut</t>
@@ -5005,7 +5008,10 @@
     <t>sw18O</t>
   </si>
   <si>
-    <t>Mass of Water Containing Oxygen-18 (H2 18O) in Layer</t>
+    <t>Isotopic Ratio of Oxygen-18 in Sea Water</t>
+  </si>
+  <si>
+    <t>Ratio of abundance of oxygen-18 (18O) atoms to oxygen-16 (16O) atoms in sea water</t>
   </si>
   <si>
     <t>sw2H</t>
@@ -5281,7 +5287,7 @@
     <t>nppLeaf</t>
   </si>
   <si>
-    <t>Carbon Mass Flux Due to NPP Allocation to Leaf</t>
+    <t>Net Primary Production Allocated to Leaves as Carbon Mass Flux [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>This is the rate of carbon uptake by leaves due to NPP</t>
@@ -5293,7 +5299,7 @@
     <t>nppRoot</t>
   </si>
   <si>
-    <t>Carbon Mass Flux Due to NPP Allocation to Roots</t>
+    <t>Net Primary Production Allocated to Roots as Carbon Mass Flux [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>This is the rate of carbon uptake by roots due to NPP</t>
@@ -5302,7 +5308,7 @@
     <t>nppWood</t>
   </si>
   <si>
-    <t>Carbon Mass Flux Due to NPP Allocation to Wood</t>
+    <t>Net Primary Production Allocated to Wood as Carbon Mass Flux [kgC m-2 s-1]</t>
   </si>
   <si>
     <t>This is the rate of carbon uptake by wood due to NPP</t>
@@ -21677,25 +21683,25 @@
         <v>1313</v>
       </c>
       <c r="F512" t="s">
-        <v>74</v>
+        <v>1314</v>
       </c>
       <c r="G512">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/76248ae1d72c976495be67161d5a8d7d.html","web")</f>
         <v>0</v>
       </c>
       <c r="J512" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="K512" t="s">
         <v>69</v>
       </c>
       <c r="M512" t="s">
-        <v>74</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="514" spans="1:13">
       <c r="A514" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B514" t="s">
         <v>412</v>
@@ -21728,7 +21734,7 @@
     </row>
     <row r="515" spans="1:13">
       <c r="A515" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B515" t="s">
         <v>549</v>
@@ -21761,7 +21767,7 @@
     </row>
     <row r="516" spans="1:13">
       <c r="A516" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B516" t="s">
         <v>555</v>
@@ -21794,7 +21800,7 @@
     </row>
     <row r="517" spans="1:13">
       <c r="A517" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B517" t="s">
         <v>559</v>
@@ -21827,7 +21833,7 @@
     </row>
     <row r="518" spans="1:13">
       <c r="A518" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B518" t="s">
         <v>563</v>
@@ -21860,7 +21866,7 @@
     </row>
     <row r="519" spans="1:13">
       <c r="A519" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B519" t="s">
         <v>567</v>
@@ -21893,7 +21899,7 @@
     </row>
     <row r="520" spans="1:13">
       <c r="A520" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B520" t="s">
         <v>570</v>
@@ -21926,10 +21932,10 @@
     </row>
     <row r="521" spans="1:13">
       <c r="A521" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B521" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C521" t="s">
         <v>50</v>
@@ -21938,7 +21944,7 @@
         <v>1060</v>
       </c>
       <c r="E521" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="F521" t="s">
         <v>35</v>
@@ -21948,7 +21954,7 @@
         <v>0</v>
       </c>
       <c r="J521" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="K521" t="s">
         <v>1046</v>
@@ -21959,10 +21965,10 @@
     </row>
     <row r="522" spans="1:13">
       <c r="A522" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B522" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C522" t="s">
         <v>50</v>
@@ -21971,7 +21977,7 @@
         <v>1060</v>
       </c>
       <c r="E522" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="F522" t="s">
         <v>35</v>
@@ -21981,7 +21987,7 @@
         <v>0</v>
       </c>
       <c r="J522" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="K522" t="s">
         <v>1046</v>
@@ -21992,7 +21998,7 @@
     </row>
     <row r="523" spans="1:13">
       <c r="A523" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B523" t="s">
         <v>1204</v>
@@ -22025,7 +22031,7 @@
     </row>
     <row r="524" spans="1:13">
       <c r="A524" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B524" t="s">
         <v>1207</v>
@@ -22058,10 +22064,10 @@
     </row>
     <row r="525" spans="1:13">
       <c r="A525" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B525" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C525" t="s">
         <v>50</v>
@@ -22070,7 +22076,7 @@
         <v>1073</v>
       </c>
       <c r="E525" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="F525" t="s">
         <v>182</v>
@@ -22080,7 +22086,7 @@
         <v>0</v>
       </c>
       <c r="J525" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="K525" t="s">
         <v>1046</v>
@@ -22091,7 +22097,7 @@
     </row>
     <row r="526" spans="1:13">
       <c r="A526" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B526" t="s">
         <v>985</v>
@@ -22124,10 +22130,10 @@
     </row>
     <row r="527" spans="1:13">
       <c r="A527" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B527" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C527" t="s">
         <v>50</v>
@@ -22136,7 +22142,7 @@
         <v>1073</v>
       </c>
       <c r="E527" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="F527" t="s">
         <v>182</v>
@@ -22157,10 +22163,10 @@
     </row>
     <row r="528" spans="1:13">
       <c r="A528" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B528" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C528" t="s">
         <v>50</v>
@@ -22169,7 +22175,7 @@
         <v>1073</v>
       </c>
       <c r="E528" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="F528" t="s">
         <v>182</v>
@@ -22179,7 +22185,7 @@
         <v>0</v>
       </c>
       <c r="J528" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="K528" t="s">
         <v>1046</v>
@@ -22190,10 +22196,10 @@
     </row>
     <row r="529" spans="1:13">
       <c r="A529" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B529" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C529" t="s">
         <v>50</v>
@@ -22202,7 +22208,7 @@
         <v>1073</v>
       </c>
       <c r="E529" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F529" t="s">
         <v>182</v>
@@ -22212,7 +22218,7 @@
         <v>0</v>
       </c>
       <c r="J529" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="K529" t="s">
         <v>1046</v>
@@ -22223,10 +22229,10 @@
     </row>
     <row r="530" spans="1:13">
       <c r="A530" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B530" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C530" t="s">
         <v>50</v>
@@ -22235,7 +22241,7 @@
         <v>1073</v>
       </c>
       <c r="E530" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="F530" t="s">
         <v>182</v>
@@ -22245,7 +22251,7 @@
         <v>0</v>
       </c>
       <c r="J530" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="K530" t="s">
         <v>1046</v>
@@ -22256,7 +22262,7 @@
     </row>
     <row r="531" spans="1:13">
       <c r="A531" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B531" t="s">
         <v>1120</v>
@@ -22289,7 +22295,7 @@
     </row>
     <row r="532" spans="1:13">
       <c r="A532" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B532" t="s">
         <v>1123</v>
@@ -22322,7 +22328,7 @@
     </row>
     <row r="533" spans="1:13">
       <c r="A533" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B533" t="s">
         <v>1125</v>
@@ -22355,7 +22361,7 @@
     </row>
     <row r="534" spans="1:13">
       <c r="A534" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B534" t="s">
         <v>1128</v>
@@ -22388,10 +22394,10 @@
     </row>
     <row r="535" spans="1:13">
       <c r="A535" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B535" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C535" t="s">
         <v>50</v>
@@ -22400,7 +22406,7 @@
         <v>1060</v>
       </c>
       <c r="E535" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="F535" t="s">
         <v>57</v>
@@ -22421,10 +22427,10 @@
     </row>
     <row r="536" spans="1:13">
       <c r="A536" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B536" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C536" t="s">
         <v>50</v>
@@ -22433,7 +22439,7 @@
         <v>1060</v>
       </c>
       <c r="E536" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="F536" t="s">
         <v>57</v>
@@ -22454,10 +22460,10 @@
     </row>
     <row r="537" spans="1:13">
       <c r="A537" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B537" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C537" t="s">
         <v>50</v>
@@ -22466,7 +22472,7 @@
         <v>1060</v>
       </c>
       <c r="E537" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="F537" t="s">
         <v>57</v>
@@ -22487,10 +22493,10 @@
     </row>
     <row r="538" spans="1:13">
       <c r="A538" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B538" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C538" t="s">
         <v>50</v>
@@ -22499,7 +22505,7 @@
         <v>1060</v>
       </c>
       <c r="E538" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="F538" t="s">
         <v>57</v>
@@ -22520,10 +22526,10 @@
     </row>
     <row r="539" spans="1:13">
       <c r="A539" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B539" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C539" t="s">
         <v>50</v>
@@ -22532,7 +22538,7 @@
         <v>1060</v>
       </c>
       <c r="E539" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="F539" t="s">
         <v>57</v>
@@ -22553,7 +22559,7 @@
     </row>
     <row r="540" spans="1:13">
       <c r="A540" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B540" t="s">
         <v>459</v>
@@ -22586,10 +22592,10 @@
     </row>
     <row r="541" spans="1:13">
       <c r="A541" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B541" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C541" t="s">
         <v>50</v>
@@ -22598,7 +22604,7 @@
         <v>1060</v>
       </c>
       <c r="E541" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="F541" t="s">
         <v>57</v>
@@ -22608,10 +22614,10 @@
         <v>0</v>
       </c>
       <c r="J541" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="K541" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="M541" t="s">
         <v>57</v>
@@ -22619,10 +22625,10 @@
     </row>
     <row r="542" spans="1:13">
       <c r="A542" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B542" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C542" t="s">
         <v>50</v>
@@ -22631,7 +22637,7 @@
         <v>1073</v>
       </c>
       <c r="E542" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="F542" t="s">
         <v>57</v>
@@ -22641,10 +22647,10 @@
         <v>0</v>
       </c>
       <c r="J542" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="K542" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="M542" t="s">
         <v>57</v>
@@ -22652,10 +22658,10 @@
     </row>
     <row r="544" spans="1:13">
       <c r="A544" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B544" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C544" t="s">
         <v>35</v>
@@ -22664,7 +22670,7 @@
         <v>152</v>
       </c>
       <c r="E544" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="F544" t="s">
         <v>182</v>
@@ -22674,7 +22680,7 @@
         <v>0</v>
       </c>
       <c r="J544" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="K544" t="s">
         <v>21</v>
@@ -22685,10 +22691,10 @@
     </row>
     <row r="545" spans="1:13">
       <c r="A545" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B545" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C545" t="s">
         <v>35</v>
@@ -22697,7 +22703,7 @@
         <v>152</v>
       </c>
       <c r="E545" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="F545" t="s">
         <v>182</v>
@@ -22718,10 +22724,10 @@
     </row>
     <row r="546" spans="1:13">
       <c r="A546" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B546" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C546" t="s">
         <v>50</v>
@@ -22730,7 +22736,7 @@
         <v>152</v>
       </c>
       <c r="E546" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="F546" t="s">
         <v>182</v>
@@ -22740,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="J546" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="K546" t="s">
         <v>40</v>
@@ -22751,10 +22757,10 @@
     </row>
     <row r="548" spans="1:13">
       <c r="A548" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B548" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C548" t="s">
         <v>50</v>
@@ -22763,7 +22769,7 @@
         <v>152</v>
       </c>
       <c r="E548" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="F548" t="s">
         <v>47</v>
@@ -22773,10 +22779,10 @@
         <v>0</v>
       </c>
       <c r="J548" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="K548" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M548" t="s">
         <v>47</v>
@@ -22784,10 +22790,10 @@
     </row>
     <row r="549" spans="1:13">
       <c r="A549" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B549" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C549" t="s">
         <v>50</v>
@@ -22796,7 +22802,7 @@
         <v>152</v>
       </c>
       <c r="E549" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="F549" t="s">
         <v>47</v>
@@ -22806,10 +22812,10 @@
         <v>0</v>
       </c>
       <c r="J549" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="K549" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M549" t="s">
         <v>47</v>
@@ -22817,10 +22823,10 @@
     </row>
     <row r="550" spans="1:13">
       <c r="A550" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B550" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C550" t="s">
         <v>50</v>
@@ -22829,7 +22835,7 @@
         <v>152</v>
       </c>
       <c r="E550" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="F550" t="s">
         <v>47</v>
@@ -22839,10 +22845,10 @@
         <v>0</v>
       </c>
       <c r="J550" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="K550" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M550" t="s">
         <v>47</v>
@@ -22850,10 +22856,10 @@
     </row>
     <row r="551" spans="1:13">
       <c r="A551" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B551" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C551" t="s">
         <v>50</v>
@@ -22862,7 +22868,7 @@
         <v>152</v>
       </c>
       <c r="E551" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="F551" t="s">
         <v>47</v>
@@ -22872,10 +22878,10 @@
         <v>0</v>
       </c>
       <c r="J551" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="K551" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M551" t="s">
         <v>47</v>
@@ -22883,10 +22889,10 @@
     </row>
     <row r="552" spans="1:13">
       <c r="A552" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B552" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C552" t="s">
         <v>50</v>
@@ -22895,7 +22901,7 @@
         <v>152</v>
       </c>
       <c r="E552" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="F552" t="s">
         <v>47</v>
@@ -22905,10 +22911,10 @@
         <v>0</v>
       </c>
       <c r="J552" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="K552" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M552" t="s">
         <v>47</v>
@@ -22916,10 +22922,10 @@
     </row>
     <row r="553" spans="1:13">
       <c r="A553" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B553" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C553" t="s">
         <v>50</v>
@@ -22928,7 +22934,7 @@
         <v>152</v>
       </c>
       <c r="E553" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="F553" t="s">
         <v>47</v>
@@ -22938,10 +22944,10 @@
         <v>0</v>
       </c>
       <c r="J553" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="K553" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M553" t="s">
         <v>47</v>
@@ -22949,10 +22955,10 @@
     </row>
     <row r="554" spans="1:13">
       <c r="A554" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B554" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C554" t="s">
         <v>50</v>
@@ -22961,7 +22967,7 @@
         <v>152</v>
       </c>
       <c r="E554" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="F554" t="s">
         <v>47</v>
@@ -22971,10 +22977,10 @@
         <v>0</v>
       </c>
       <c r="J554" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="K554" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M554" t="s">
         <v>47</v>
@@ -22982,10 +22988,10 @@
     </row>
     <row r="555" spans="1:13">
       <c r="A555" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B555" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C555" t="s">
         <v>50</v>
@@ -22994,7 +23000,7 @@
         <v>152</v>
       </c>
       <c r="E555" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="F555" t="s">
         <v>47</v>
@@ -23004,10 +23010,10 @@
         <v>0</v>
       </c>
       <c r="J555" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="K555" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M555" t="s">
         <v>47</v>
@@ -23015,10 +23021,10 @@
     </row>
     <row r="556" spans="1:13">
       <c r="A556" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B556" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C556" t="s">
         <v>50</v>
@@ -23027,7 +23033,7 @@
         <v>152</v>
       </c>
       <c r="E556" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="F556" t="s">
         <v>47</v>
@@ -23037,10 +23043,10 @@
         <v>0</v>
       </c>
       <c r="J556" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="K556" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M556" t="s">
         <v>47</v>
@@ -23048,10 +23054,10 @@
     </row>
     <row r="557" spans="1:13">
       <c r="A557" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B557" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C557" t="s">
         <v>50</v>
@@ -23060,7 +23066,7 @@
         <v>152</v>
       </c>
       <c r="E557" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="F557" t="s">
         <v>47</v>
@@ -23070,10 +23076,10 @@
         <v>0</v>
       </c>
       <c r="J557" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="K557" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M557" t="s">
         <v>47</v>
@@ -23081,10 +23087,10 @@
     </row>
     <row r="558" spans="1:13">
       <c r="A558" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B558" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C558" t="s">
         <v>50</v>
@@ -23093,7 +23099,7 @@
         <v>152</v>
       </c>
       <c r="E558" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="F558" t="s">
         <v>47</v>
@@ -23103,10 +23109,10 @@
         <v>0</v>
       </c>
       <c r="J558" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="K558" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M558" t="s">
         <v>47</v>
@@ -23114,10 +23120,10 @@
     </row>
     <row r="559" spans="1:13">
       <c r="A559" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B559" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C559" t="s">
         <v>50</v>
@@ -23126,7 +23132,7 @@
         <v>152</v>
       </c>
       <c r="E559" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="F559" t="s">
         <v>47</v>
@@ -23136,10 +23142,10 @@
         <v>0</v>
       </c>
       <c r="J559" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="K559" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="M559" t="s">
         <v>47</v>
@@ -23147,19 +23153,19 @@
     </row>
     <row r="560" spans="1:13">
       <c r="A560" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B560" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C560" t="s">
         <v>35</v>
       </c>
       <c r="D560" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="E560" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="F560" t="s">
         <v>47</v>
@@ -23169,10 +23175,10 @@
         <v>0</v>
       </c>
       <c r="J560" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="K560" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M560" t="s">
         <v>47</v>
@@ -23180,10 +23186,10 @@
     </row>
     <row r="561" spans="1:13">
       <c r="A561" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B561" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C561" t="s">
         <v>50</v>
@@ -23192,7 +23198,7 @@
         <v>152</v>
       </c>
       <c r="E561" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="F561" t="s">
         <v>47</v>
@@ -23202,10 +23208,10 @@
         <v>0</v>
       </c>
       <c r="J561" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="K561" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M561" t="s">
         <v>47</v>
@@ -23213,10 +23219,10 @@
     </row>
     <row r="562" spans="1:13">
       <c r="A562" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B562" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="C562" t="s">
         <v>50</v>
@@ -23225,7 +23231,7 @@
         <v>1270</v>
       </c>
       <c r="E562" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="F562" t="s">
         <v>47</v>
@@ -23235,10 +23241,10 @@
         <v>0</v>
       </c>
       <c r="J562" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="K562" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M562" t="s">
         <v>47</v>
@@ -23246,19 +23252,19 @@
     </row>
     <row r="563" spans="1:13">
       <c r="A563" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B563" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="C563" t="s">
         <v>50</v>
       </c>
       <c r="D563" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="E563" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="F563" t="s">
         <v>47</v>
@@ -23268,10 +23274,10 @@
         <v>0</v>
       </c>
       <c r="J563" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="K563" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M563" t="s">
         <v>47</v>
@@ -23279,10 +23285,10 @@
     </row>
     <row r="564" spans="1:13">
       <c r="A564" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B564" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C564" t="s">
         <v>50</v>
@@ -23291,7 +23297,7 @@
         <v>152</v>
       </c>
       <c r="E564" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="F564" t="s">
         <v>47</v>
@@ -23301,10 +23307,10 @@
         <v>0</v>
       </c>
       <c r="J564" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="K564" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M564" t="s">
         <v>47</v>
@@ -23312,10 +23318,10 @@
     </row>
     <row r="565" spans="1:13">
       <c r="A565" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B565" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C565" t="s">
         <v>50</v>
@@ -23324,7 +23330,7 @@
         <v>152</v>
       </c>
       <c r="E565" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="F565" t="s">
         <v>47</v>
@@ -23334,10 +23340,10 @@
         <v>0</v>
       </c>
       <c r="J565" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="K565" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M565" t="s">
         <v>47</v>
@@ -23345,10 +23351,10 @@
     </row>
     <row r="566" spans="1:13">
       <c r="A566" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B566" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="C566" t="s">
         <v>50</v>
@@ -23357,7 +23363,7 @@
         <v>152</v>
       </c>
       <c r="E566" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="F566" t="s">
         <v>47</v>
@@ -23367,10 +23373,10 @@
         <v>0</v>
       </c>
       <c r="J566" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="K566" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M566" t="s">
         <v>47</v>
@@ -23378,10 +23384,10 @@
     </row>
     <row r="567" spans="1:13">
       <c r="A567" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B567" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C567" t="s">
         <v>50</v>
@@ -23390,7 +23396,7 @@
         <v>152</v>
       </c>
       <c r="E567" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="F567" t="s">
         <v>47</v>
@@ -23400,10 +23406,10 @@
         <v>0</v>
       </c>
       <c r="J567" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="K567" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M567" t="s">
         <v>47</v>
@@ -23411,10 +23417,10 @@
     </row>
     <row r="568" spans="1:13">
       <c r="A568" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B568" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="C568" t="s">
         <v>50</v>
@@ -23423,7 +23429,7 @@
         <v>152</v>
       </c>
       <c r="E568" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="F568" t="s">
         <v>47</v>
@@ -23433,10 +23439,10 @@
         <v>0</v>
       </c>
       <c r="J568" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="K568" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M568" t="s">
         <v>47</v>
@@ -23444,7 +23450,7 @@
     </row>
     <row r="569" spans="1:13">
       <c r="A569" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B569" t="s">
         <v>1042</v>
@@ -23453,7 +23459,7 @@
         <v>35</v>
       </c>
       <c r="D569" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="E569" t="s">
         <v>1044</v>
@@ -23477,7 +23483,7 @@
     </row>
     <row r="570" spans="1:13">
       <c r="A570" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B570" t="s">
         <v>1047</v>
@@ -23486,7 +23492,7 @@
         <v>35</v>
       </c>
       <c r="D570" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="E570" t="s">
         <v>1049</v>
@@ -23510,10 +23516,10 @@
     </row>
     <row r="571" spans="1:13">
       <c r="A571" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B571" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C571" t="s">
         <v>35</v>
@@ -23522,7 +23528,7 @@
         <v>332</v>
       </c>
       <c r="E571" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="F571" t="s">
         <v>38</v>
@@ -23543,10 +23549,10 @@
     </row>
     <row r="572" spans="1:13">
       <c r="A572" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B572" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="C572" t="s">
         <v>35</v>
@@ -23555,7 +23561,7 @@
         <v>332</v>
       </c>
       <c r="E572" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="F572" t="s">
         <v>38</v>
@@ -23565,7 +23571,7 @@
         <v>0</v>
       </c>
       <c r="J572" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="K572" t="s">
         <v>1046</v>
@@ -23576,7 +23582,7 @@
     </row>
     <row r="573" spans="1:13">
       <c r="A573" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B573" t="s">
         <v>1198</v>
@@ -23585,7 +23591,7 @@
         <v>50</v>
       </c>
       <c r="D573" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E573" t="s">
         <v>1199</v>
@@ -23609,7 +23615,7 @@
     </row>
     <row r="574" spans="1:13">
       <c r="A574" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B574" t="s">
         <v>1226</v>
@@ -23634,7 +23640,7 @@
         <v>1228</v>
       </c>
       <c r="K574" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="M574" t="s">
         <v>967</v>
@@ -23642,10 +23648,10 @@
     </row>
     <row r="575" spans="1:13">
       <c r="A575" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B575" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="C575" t="s">
         <v>35</v>
@@ -23654,7 +23660,7 @@
         <v>152</v>
       </c>
       <c r="E575" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="F575" t="s">
         <v>967</v>
@@ -23664,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="J575" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="K575" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="M575" t="s">
         <v>967</v>
@@ -23675,7 +23681,7 @@
     </row>
     <row r="576" spans="1:13">
       <c r="A576" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B576" t="s">
         <v>1229</v>
@@ -23700,7 +23706,7 @@
         <v>1232</v>
       </c>
       <c r="K576" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="M576" t="s">
         <v>1231</v>
@@ -23708,7 +23714,7 @@
     </row>
     <row r="577" spans="1:13">
       <c r="A577" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B577" t="s">
         <v>1201</v>
@@ -23717,7 +23723,7 @@
         <v>50</v>
       </c>
       <c r="D577" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E577" t="s">
         <v>1202</v>
@@ -23741,10 +23747,10 @@
     </row>
     <row r="578" spans="1:13">
       <c r="A578" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B578" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C578" t="s">
         <v>35</v>
@@ -23753,7 +23759,7 @@
         <v>152</v>
       </c>
       <c r="E578" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="F578" t="s">
         <v>38</v>
@@ -23763,7 +23769,7 @@
         <v>0</v>
       </c>
       <c r="J578" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="K578" t="s">
         <v>1046</v>
@@ -23774,7 +23780,7 @@
     </row>
     <row r="579" spans="1:13">
       <c r="A579" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B579" t="s">
         <v>1056</v>
@@ -23783,7 +23789,7 @@
         <v>35</v>
       </c>
       <c r="D579" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E579" t="s">
         <v>1058</v>
@@ -23807,10 +23813,10 @@
     </row>
     <row r="580" spans="1:13">
       <c r="A580" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B580" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C580" t="s">
         <v>35</v>
@@ -23819,7 +23825,7 @@
         <v>152</v>
       </c>
       <c r="E580" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="F580" t="s">
         <v>38</v>
@@ -23829,7 +23835,7 @@
         <v>0</v>
       </c>
       <c r="J580" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="K580" t="s">
         <v>1046</v>
@@ -23840,10 +23846,10 @@
     </row>
     <row r="581" spans="1:13">
       <c r="A581" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B581" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C581" t="s">
         <v>35</v>
@@ -23852,7 +23858,7 @@
         <v>152</v>
       </c>
       <c r="E581" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="F581" t="s">
         <v>38</v>
@@ -23862,7 +23868,7 @@
         <v>0</v>
       </c>
       <c r="J581" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="K581" t="s">
         <v>1046</v>
@@ -23873,7 +23879,7 @@
     </row>
     <row r="582" spans="1:13">
       <c r="A582" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B582" t="s">
         <v>1236</v>
@@ -23906,10 +23912,10 @@
     </row>
     <row r="583" spans="1:13">
       <c r="A583" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B583" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C583" t="s">
         <v>50</v>
@@ -23918,31 +23924,31 @@
         <v>550</v>
       </c>
       <c r="E583" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="F583" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="G583">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/712473d6-c7b6-11e6-bb2a-ac72891c3257.html","web")</f>
         <v>0</v>
       </c>
       <c r="J583" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="K583" t="s">
         <v>1273</v>
       </c>
       <c r="M583" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="584" spans="1:13">
       <c r="A584" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B584" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="C584" t="s">
         <v>50</v>
@@ -23951,31 +23957,31 @@
         <v>152</v>
       </c>
       <c r="E584" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="F584" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="G584">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591469b4-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J584" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="K584" t="s">
         <v>951</v>
       </c>
       <c r="M584" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="585" spans="1:13">
       <c r="A585" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B585" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C585" t="s">
         <v>50</v>
@@ -23984,7 +23990,7 @@
         <v>152</v>
       </c>
       <c r="E585" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="F585" t="s">
         <v>182</v>
@@ -23994,7 +24000,7 @@
         <v>0</v>
       </c>
       <c r="J585" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="K585" t="s">
         <v>21</v>
@@ -24005,10 +24011,10 @@
     </row>
     <row r="586" spans="1:13">
       <c r="A586" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B586" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C586" t="s">
         <v>35</v>
@@ -24017,7 +24023,7 @@
         <v>550</v>
       </c>
       <c r="E586" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="F586" t="s">
         <v>967</v>
@@ -24027,10 +24033,10 @@
         <v>0</v>
       </c>
       <c r="J586" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="K586" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="M586" t="s">
         <v>967</v>
@@ -24038,10 +24044,10 @@
     </row>
     <row r="587" spans="1:13">
       <c r="A587" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B587" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C587" t="s">
         <v>35</v>
@@ -24050,7 +24056,7 @@
         <v>550</v>
       </c>
       <c r="E587" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="F587" t="s">
         <v>967</v>
@@ -24060,10 +24066,10 @@
         <v>0</v>
       </c>
       <c r="J587" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="K587" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="M587" t="s">
         <v>967</v>
@@ -24071,10 +24077,10 @@
     </row>
     <row r="588" spans="1:13">
       <c r="A588" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B588" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C588" t="s">
         <v>35</v>
@@ -24083,7 +24089,7 @@
         <v>550</v>
       </c>
       <c r="E588" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="F588" t="s">
         <v>967</v>
@@ -24093,10 +24099,10 @@
         <v>0</v>
       </c>
       <c r="J588" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="K588" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="M588" t="s">
         <v>967</v>
@@ -24104,10 +24110,10 @@
     </row>
     <row r="589" spans="1:13">
       <c r="A589" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B589" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C589" t="s">
         <v>35</v>
@@ -24116,7 +24122,7 @@
         <v>919</v>
       </c>
       <c r="E589" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="F589" t="s">
         <v>24</v>
@@ -24126,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="J589" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="K589" t="s">
         <v>880</v>
@@ -24137,10 +24143,10 @@
     </row>
     <row r="590" spans="1:13">
       <c r="A590" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B590" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C590" t="s">
         <v>50</v>
@@ -24149,7 +24155,7 @@
         <v>85</v>
       </c>
       <c r="E590" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="F590" t="s">
         <v>87</v>
@@ -24159,10 +24165,10 @@
         <v>0</v>
       </c>
       <c r="J590" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="K590" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M590" t="s">
         <v>87</v>
@@ -24170,7 +24176,7 @@
     </row>
     <row r="591" spans="1:13">
       <c r="A591" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B591" t="s">
         <v>170</v>
@@ -24203,10 +24209,10 @@
     </row>
     <row r="592" spans="1:13">
       <c r="A592" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B592" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C592" t="s">
         <v>35</v>
@@ -24215,7 +24221,7 @@
         <v>152</v>
       </c>
       <c r="E592" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F592" t="s">
         <v>182</v>
@@ -24225,10 +24231,10 @@
         <v>0</v>
       </c>
       <c r="J592" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="K592" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M592" t="s">
         <v>182</v>
@@ -24236,10 +24242,10 @@
     </row>
     <row r="593" spans="1:13">
       <c r="A593" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B593" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C593" t="s">
         <v>35</v>
@@ -24248,7 +24254,7 @@
         <v>152</v>
       </c>
       <c r="E593" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="F593" t="s">
         <v>182</v>
@@ -24258,10 +24264,10 @@
         <v>0</v>
       </c>
       <c r="J593" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="K593" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M593" t="s">
         <v>182</v>
@@ -24269,10 +24275,10 @@
     </row>
     <row r="594" spans="1:13">
       <c r="A594" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B594" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="C594" t="s">
         <v>50</v>
@@ -24281,7 +24287,7 @@
         <v>152</v>
       </c>
       <c r="E594" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="F594" t="s">
         <v>182</v>
@@ -24291,10 +24297,10 @@
         <v>0</v>
       </c>
       <c r="J594" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="K594" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M594" t="s">
         <v>182</v>
@@ -24302,10 +24308,10 @@
     </row>
     <row r="595" spans="1:13">
       <c r="A595" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B595" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="C595" t="s">
         <v>35</v>
@@ -24314,7 +24320,7 @@
         <v>152</v>
       </c>
       <c r="E595" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="F595" t="s">
         <v>182</v>
@@ -24324,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="J595" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="K595" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M595" t="s">
         <v>182</v>
@@ -24335,10 +24341,10 @@
     </row>
     <row r="596" spans="1:13">
       <c r="A596" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B596" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="C596" t="s">
         <v>50</v>
@@ -24347,7 +24353,7 @@
         <v>152</v>
       </c>
       <c r="E596" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="F596" t="s">
         <v>182</v>
@@ -24357,10 +24363,10 @@
         <v>0</v>
       </c>
       <c r="J596" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="K596" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M596" t="s">
         <v>182</v>
@@ -24368,10 +24374,10 @@
     </row>
     <row r="597" spans="1:13">
       <c r="A597" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B597" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C597" t="s">
         <v>50</v>
@@ -24380,7 +24386,7 @@
         <v>152</v>
       </c>
       <c r="E597" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="F597" t="s">
         <v>182</v>
@@ -24390,10 +24396,10 @@
         <v>0</v>
       </c>
       <c r="J597" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="K597" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M597" t="s">
         <v>182</v>
@@ -24401,10 +24407,10 @@
     </row>
     <row r="598" spans="1:13">
       <c r="A598" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B598" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="C598" t="s">
         <v>50</v>
@@ -24413,7 +24419,7 @@
         <v>152</v>
       </c>
       <c r="E598" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="F598" t="s">
         <v>182</v>
@@ -24423,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="J598" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="K598" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M598" t="s">
         <v>182</v>
@@ -24434,10 +24440,10 @@
     </row>
     <row r="599" spans="1:13">
       <c r="A599" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B599" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="C599" t="s">
         <v>50</v>
@@ -24446,7 +24452,7 @@
         <v>152</v>
       </c>
       <c r="E599" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="F599" t="s">
         <v>182</v>
@@ -24456,10 +24462,10 @@
         <v>0</v>
       </c>
       <c r="J599" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="K599" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M599" t="s">
         <v>182</v>
@@ -24467,19 +24473,19 @@
     </row>
     <row r="600" spans="1:13">
       <c r="A600" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B600" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="C600" t="s">
         <v>35</v>
       </c>
       <c r="D600" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E600" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="F600" t="s">
         <v>74</v>
@@ -24489,10 +24495,10 @@
         <v>0</v>
       </c>
       <c r="J600" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="K600" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="M600" t="s">
         <v>74</v>
@@ -24500,10 +24506,10 @@
     </row>
     <row r="601" spans="1:13">
       <c r="A601" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B601" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="C601" t="s">
         <v>50</v>
@@ -24512,7 +24518,7 @@
         <v>152</v>
       </c>
       <c r="E601" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="F601" t="s">
         <v>182</v>
@@ -24522,10 +24528,10 @@
         <v>0</v>
       </c>
       <c r="J601" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="K601" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M601" t="s">
         <v>182</v>
@@ -24533,10 +24539,10 @@
     </row>
     <row r="602" spans="1:13">
       <c r="A602" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B602" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C602" t="s">
         <v>50</v>
@@ -24545,7 +24551,7 @@
         <v>152</v>
       </c>
       <c r="E602" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="F602" t="s">
         <v>182</v>
@@ -24555,10 +24561,10 @@
         <v>0</v>
       </c>
       <c r="J602" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="K602" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M602" t="s">
         <v>182</v>
@@ -24566,10 +24572,10 @@
     </row>
     <row r="603" spans="1:13">
       <c r="A603" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B603" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C603" t="s">
         <v>50</v>
@@ -24578,7 +24584,7 @@
         <v>152</v>
       </c>
       <c r="E603" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="F603" t="s">
         <v>182</v>
@@ -24588,10 +24594,10 @@
         <v>0</v>
       </c>
       <c r="J603" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="K603" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M603" t="s">
         <v>182</v>
@@ -24599,10 +24605,10 @@
     </row>
     <row r="604" spans="1:13">
       <c r="A604" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B604" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C604" t="s">
         <v>50</v>
@@ -24611,7 +24617,7 @@
         <v>152</v>
       </c>
       <c r="E604" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="F604" t="s">
         <v>182</v>
@@ -24621,10 +24627,10 @@
         <v>0</v>
       </c>
       <c r="J604" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="K604" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M604" t="s">
         <v>182</v>
@@ -24632,7 +24638,7 @@
     </row>
     <row r="605" spans="1:13">
       <c r="A605" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B605" t="s">
         <v>1210</v>
@@ -24641,7 +24647,7 @@
         <v>50</v>
       </c>
       <c r="D605" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E605" t="s">
         <v>1211</v>
@@ -24665,19 +24671,19 @@
     </row>
     <row r="606" spans="1:13">
       <c r="A606" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B606" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="C606" t="s">
         <v>35</v>
       </c>
       <c r="D606" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E606" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="F606" t="s">
         <v>74</v>
@@ -24687,10 +24693,10 @@
         <v>0</v>
       </c>
       <c r="J606" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="K606" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="M606" t="s">
         <v>74</v>
@@ -24698,19 +24704,19 @@
     </row>
     <row r="607" spans="1:13">
       <c r="A607" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B607" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C607" t="s">
         <v>35</v>
       </c>
       <c r="D607" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E607" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="F607" t="s">
         <v>74</v>
@@ -24720,10 +24726,10 @@
         <v>0</v>
       </c>
       <c r="J607" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="K607" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="M607" t="s">
         <v>74</v>
@@ -24731,7 +24737,7 @@
     </row>
     <row r="608" spans="1:13">
       <c r="A608" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B608" t="s">
         <v>1239</v>
@@ -24764,19 +24770,19 @@
     </row>
     <row r="609" spans="1:13">
       <c r="A609" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B609" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="C609" t="s">
         <v>35</v>
       </c>
       <c r="D609" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="E609" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="F609" t="s">
         <v>35</v>
@@ -24786,10 +24792,10 @@
         <v>0</v>
       </c>
       <c r="J609" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="K609" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="M609" t="s">
         <v>35</v>
@@ -24797,10 +24803,10 @@
     </row>
     <row r="610" spans="1:13">
       <c r="A610" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B610" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C610" t="s">
         <v>35</v>
@@ -24809,31 +24815,31 @@
         <v>152</v>
       </c>
       <c r="E610" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="F610" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="G610">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5917acf0-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J610" t="s">
+        <v>1522</v>
+      </c>
+      <c r="K610" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M610" t="s">
         <v>1521</v>
-      </c>
-      <c r="K610" t="s">
-        <v>1522</v>
-      </c>
-      <c r="M610" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="611" spans="1:13">
       <c r="A611" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B611" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C611" t="s">
         <v>35</v>
@@ -24842,31 +24848,31 @@
         <v>152</v>
       </c>
       <c r="E611" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="F611" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="G611">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590de58a-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J611" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K611" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M611" t="s">
         <v>1526</v>
-      </c>
-      <c r="K611" t="s">
-        <v>1522</v>
-      </c>
-      <c r="M611" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="612" spans="1:13">
       <c r="A612" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B612" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C612" t="s">
         <v>35</v>
@@ -24875,31 +24881,31 @@
         <v>152</v>
       </c>
       <c r="E612" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="F612" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="G612">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/59147b48-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J612" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="K612" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M612" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="613" spans="1:13">
       <c r="A613" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B613" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C613" t="s">
         <v>35</v>
@@ -24908,28 +24914,28 @@
         <v>152</v>
       </c>
       <c r="E613" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="F613" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="G613">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/591444ca-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J613" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="K613" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M613" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="614" spans="1:13">
       <c r="A614" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B614" t="s">
         <v>1061</v>
@@ -24962,7 +24968,7 @@
     </row>
     <row r="615" spans="1:13">
       <c r="A615" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B615" t="s">
         <v>1065</v>
@@ -24995,7 +25001,7 @@
     </row>
     <row r="616" spans="1:13">
       <c r="A616" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B616" t="s">
         <v>1260</v>
@@ -25020,7 +25026,7 @@
         <v>1262</v>
       </c>
       <c r="K616" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="M616" t="s">
         <v>47</v>
@@ -25028,7 +25034,7 @@
     </row>
     <row r="617" spans="1:13">
       <c r="A617" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B617" t="s">
         <v>1266</v>
@@ -25053,7 +25059,7 @@
         <v>1268</v>
       </c>
       <c r="K617" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="M617" t="s">
         <v>47</v>
@@ -25061,10 +25067,10 @@
     </row>
     <row r="618" spans="1:13">
       <c r="A618" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B618" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="C618" t="s">
         <v>35</v>
@@ -25073,7 +25079,7 @@
         <v>152</v>
       </c>
       <c r="E618" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="F618" t="s">
         <v>74</v>
@@ -25083,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="J618" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="K618" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M618" t="s">
         <v>74</v>
@@ -25094,10 +25100,10 @@
     </row>
     <row r="619" spans="1:13">
       <c r="A619" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B619" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C619" t="s">
         <v>35</v>
@@ -25106,7 +25112,7 @@
         <v>152</v>
       </c>
       <c r="E619" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="F619" t="s">
         <v>74</v>
@@ -25116,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="J619" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="K619" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M619" t="s">
         <v>74</v>
@@ -25127,10 +25133,10 @@
     </row>
     <row r="620" spans="1:13">
       <c r="A620" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B620" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="C620" t="s">
         <v>35</v>
@@ -25139,7 +25145,7 @@
         <v>152</v>
       </c>
       <c r="E620" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="F620" t="s">
         <v>74</v>
@@ -25149,10 +25155,10 @@
         <v>0</v>
       </c>
       <c r="J620" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="K620" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M620" t="s">
         <v>74</v>
@@ -25160,10 +25166,10 @@
     </row>
     <row r="621" spans="1:13">
       <c r="A621" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B621" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C621" t="s">
         <v>35</v>
@@ -25172,7 +25178,7 @@
         <v>152</v>
       </c>
       <c r="E621" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="F621" t="s">
         <v>74</v>
@@ -25182,10 +25188,10 @@
         <v>0</v>
       </c>
       <c r="J621" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="K621" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M621" t="s">
         <v>74</v>
@@ -25193,10 +25199,10 @@
     </row>
     <row r="622" spans="1:13">
       <c r="A622" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B622" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="C622" t="s">
         <v>35</v>
@@ -25205,7 +25211,7 @@
         <v>152</v>
       </c>
       <c r="E622" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="F622" t="s">
         <v>74</v>
@@ -25215,10 +25221,10 @@
         <v>0</v>
       </c>
       <c r="J622" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="K622" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M622" t="s">
         <v>74</v>
@@ -25226,10 +25232,10 @@
     </row>
     <row r="623" spans="1:13">
       <c r="A623" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B623" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C623" t="s">
         <v>35</v>
@@ -25238,7 +25244,7 @@
         <v>152</v>
       </c>
       <c r="E623" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="F623" t="s">
         <v>47</v>
@@ -25248,10 +25254,10 @@
         <v>0</v>
       </c>
       <c r="J623" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="K623" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M623" t="s">
         <v>47</v>
@@ -25259,7 +25265,7 @@
     </row>
     <row r="624" spans="1:13">
       <c r="A624" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B624" t="s">
         <v>1269</v>
@@ -25284,7 +25290,7 @@
         <v>1272</v>
       </c>
       <c r="K624" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M624" t="s">
         <v>47</v>
@@ -25292,10 +25298,10 @@
     </row>
     <row r="625" spans="1:13">
       <c r="A625" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B625" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="C625" t="s">
         <v>50</v>
@@ -25304,7 +25310,7 @@
         <v>152</v>
       </c>
       <c r="E625" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="F625" t="s">
         <v>47</v>
@@ -25314,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="J625" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="K625" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M625" t="s">
         <v>47</v>
@@ -25325,10 +25331,10 @@
     </row>
     <row r="626" spans="1:13">
       <c r="A626" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B626" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="C626" t="s">
         <v>50</v>
@@ -25337,7 +25343,7 @@
         <v>152</v>
       </c>
       <c r="E626" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="F626" t="s">
         <v>182</v>
@@ -25347,10 +25353,10 @@
         <v>0</v>
       </c>
       <c r="J626" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="K626" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M626" t="s">
         <v>182</v>
@@ -25358,10 +25364,10 @@
     </row>
     <row r="627" spans="1:13">
       <c r="A627" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B627" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="C627" t="s">
         <v>50</v>
@@ -25370,7 +25376,7 @@
         <v>152</v>
       </c>
       <c r="E627" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="F627" t="s">
         <v>182</v>
@@ -25380,10 +25386,10 @@
         <v>0</v>
       </c>
       <c r="J627" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="K627" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M627" t="s">
         <v>182</v>
@@ -25391,10 +25397,10 @@
     </row>
     <row r="628" spans="1:13">
       <c r="A628" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B628" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="C628" t="s">
         <v>50</v>
@@ -25403,7 +25409,7 @@
         <v>152</v>
       </c>
       <c r="E628" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="F628" t="s">
         <v>182</v>
@@ -25413,10 +25419,10 @@
         <v>0</v>
       </c>
       <c r="J628" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="K628" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M628" t="s">
         <v>182</v>
@@ -25424,10 +25430,10 @@
     </row>
     <row r="629" spans="1:13">
       <c r="A629" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B629" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C629" t="s">
         <v>50</v>
@@ -25436,7 +25442,7 @@
         <v>152</v>
       </c>
       <c r="E629" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="F629" t="s">
         <v>182</v>
@@ -25446,10 +25452,10 @@
         <v>0</v>
       </c>
       <c r="J629" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="K629" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M629" t="s">
         <v>182</v>
@@ -25457,10 +25463,10 @@
     </row>
     <row r="630" spans="1:13">
       <c r="A630" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B630" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="C630" t="s">
         <v>50</v>
@@ -25469,7 +25475,7 @@
         <v>152</v>
       </c>
       <c r="E630" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="F630" t="s">
         <v>182</v>
@@ -25479,10 +25485,10 @@
         <v>0</v>
       </c>
       <c r="J630" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="K630" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M630" t="s">
         <v>182</v>
@@ -25490,7 +25496,7 @@
     </row>
     <row r="631" spans="1:13">
       <c r="A631" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B631" t="s">
         <v>196</v>
@@ -25515,7 +25521,7 @@
         <v>199</v>
       </c>
       <c r="K631" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="M631" t="s">
         <v>198</v>
@@ -25523,7 +25529,7 @@
     </row>
     <row r="632" spans="1:13">
       <c r="A632" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B632" t="s">
         <v>200</v>
@@ -25548,7 +25554,7 @@
         <v>202</v>
       </c>
       <c r="K632" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="M632" t="s">
         <v>74</v>
@@ -25556,10 +25562,10 @@
     </row>
     <row r="633" spans="1:13">
       <c r="A633" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B633" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="C633" t="s">
         <v>35</v>
@@ -25568,7 +25574,7 @@
         <v>152</v>
       </c>
       <c r="E633" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="F633" t="s">
         <v>35</v>
@@ -25578,10 +25584,10 @@
         <v>0</v>
       </c>
       <c r="J633" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="K633" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M633" t="s">
         <v>35</v>
@@ -25589,10 +25595,10 @@
     </row>
     <row r="634" spans="1:13">
       <c r="A634" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B634" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="C634" t="s">
         <v>35</v>
@@ -25601,7 +25607,7 @@
         <v>998</v>
       </c>
       <c r="E634" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="F634" t="s">
         <v>35</v>
@@ -25611,10 +25617,10 @@
         <v>0</v>
       </c>
       <c r="J634" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="K634" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="M634" t="s">
         <v>35</v>
@@ -25622,10 +25628,10 @@
     </row>
     <row r="635" spans="1:13">
       <c r="A635" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B635" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="C635" t="s">
         <v>35</v>
@@ -25634,7 +25640,7 @@
         <v>998</v>
       </c>
       <c r="E635" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="F635" t="s">
         <v>35</v>
@@ -25644,10 +25650,10 @@
         <v>0</v>
       </c>
       <c r="J635" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="K635" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M635" t="s">
         <v>35</v>
@@ -25655,10 +25661,10 @@
     </row>
     <row r="636" spans="1:13">
       <c r="A636" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B636" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="C636" t="s">
         <v>35</v>
@@ -25667,7 +25673,7 @@
         <v>152</v>
       </c>
       <c r="E636" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="F636" t="s">
         <v>35</v>
@@ -25677,10 +25683,10 @@
         <v>0</v>
       </c>
       <c r="J636" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="K636" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M636" t="s">
         <v>35</v>
@@ -25688,7 +25694,7 @@
     </row>
     <row r="637" spans="1:13">
       <c r="A637" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B637" t="s">
         <v>203</v>
@@ -25713,7 +25719,7 @@
         <v>205</v>
       </c>
       <c r="K637" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="M637" t="s">
         <v>74</v>
@@ -25721,7 +25727,7 @@
     </row>
     <row r="638" spans="1:13">
       <c r="A638" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B638" t="s">
         <v>206</v>
@@ -25746,7 +25752,7 @@
         <v>208</v>
       </c>
       <c r="K638" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="M638" t="s">
         <v>198</v>
@@ -25754,7 +25760,7 @@
     </row>
     <row r="639" spans="1:13">
       <c r="A639" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B639" t="s">
         <v>209</v>
@@ -25779,7 +25785,7 @@
         <v>211</v>
       </c>
       <c r="K639" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="M639" t="s">
         <v>74</v>
@@ -25787,7 +25793,7 @@
     </row>
     <row r="640" spans="1:13">
       <c r="A640" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B640" t="s">
         <v>212</v>
@@ -25812,7 +25818,7 @@
         <v>214</v>
       </c>
       <c r="K640" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="M640" t="s">
         <v>74</v>
@@ -25820,7 +25826,7 @@
     </row>
     <row r="641" spans="1:13">
       <c r="A641" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B641" t="s">
         <v>215</v>
@@ -25845,7 +25851,7 @@
         <v>217</v>
       </c>
       <c r="K641" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="M641" t="s">
         <v>74</v>
@@ -25853,7 +25859,7 @@
     </row>
     <row r="642" spans="1:13">
       <c r="A642" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B642" t="s">
         <v>218</v>
@@ -25878,7 +25884,7 @@
         <v>220</v>
       </c>
       <c r="K642" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="M642" t="s">
         <v>74</v>
@@ -25886,7 +25892,7 @@
     </row>
     <row r="643" spans="1:13">
       <c r="A643" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B643" t="s">
         <v>221</v>
@@ -25911,7 +25917,7 @@
         <v>223</v>
       </c>
       <c r="K643" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="M643" t="s">
         <v>74</v>
@@ -25919,7 +25925,7 @@
     </row>
     <row r="644" spans="1:13">
       <c r="A644" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B644" t="s">
         <v>224</v>
@@ -25944,7 +25950,7 @@
         <v>226</v>
       </c>
       <c r="K644" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="M644" t="s">
         <v>182</v>
@@ -25952,10 +25958,10 @@
     </row>
     <row r="645" spans="1:13">
       <c r="A645" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B645" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C645" t="s">
         <v>35</v>
@@ -25964,28 +25970,28 @@
         <v>85</v>
       </c>
       <c r="E645" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="F645" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="G645">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/15410a16-f746-11e5-950e-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="J645" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K645" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M645" t="s">
         <v>1583</v>
-      </c>
-      <c r="K645" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M645" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="646" spans="1:13">
       <c r="A646" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B646" t="s">
         <v>1069</v>
@@ -26018,10 +26024,10 @@
     </row>
     <row r="647" spans="1:13">
       <c r="A647" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B647" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="C647" t="s">
         <v>35</v>
@@ -26030,28 +26036,28 @@
         <v>85</v>
       </c>
       <c r="E647" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="F647" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="G647">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/590df00c-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J647" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="K647" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="M647" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="648" spans="1:13">
       <c r="A648" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B648" t="s">
         <v>257</v>
@@ -26084,7 +26090,7 @@
     </row>
     <row r="649" spans="1:13">
       <c r="A649" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B649" t="s">
         <v>260</v>
@@ -26117,7 +26123,7 @@
     </row>
     <row r="650" spans="1:13">
       <c r="A650" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B650" t="s">
         <v>263</v>
@@ -26150,10 +26156,10 @@
     </row>
     <row r="651" spans="1:13">
       <c r="A651" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B651" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C651" t="s">
         <v>35</v>
@@ -26162,7 +26168,7 @@
         <v>152</v>
       </c>
       <c r="E651" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="F651" t="s">
         <v>182</v>
@@ -26172,10 +26178,10 @@
         <v>0</v>
       </c>
       <c r="J651" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="K651" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M651" t="s">
         <v>182</v>
@@ -26183,10 +26189,10 @@
     </row>
     <row r="652" spans="1:13">
       <c r="A652" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B652" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C652" t="s">
         <v>35</v>
@@ -26195,7 +26201,7 @@
         <v>152</v>
       </c>
       <c r="E652" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="F652" t="s">
         <v>182</v>
@@ -26205,10 +26211,10 @@
         <v>0</v>
       </c>
       <c r="J652" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="K652" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M652" t="s">
         <v>182</v>
@@ -26216,10 +26222,10 @@
     </row>
     <row r="653" spans="1:13">
       <c r="A653" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B653" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="C653" t="s">
         <v>35</v>
@@ -26228,7 +26234,7 @@
         <v>152</v>
       </c>
       <c r="E653" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="F653" t="s">
         <v>182</v>
@@ -26238,10 +26244,10 @@
         <v>0</v>
       </c>
       <c r="J653" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="K653" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M653" t="s">
         <v>182</v>
@@ -26249,10 +26255,10 @@
     </row>
     <row r="654" spans="1:13">
       <c r="A654" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B654" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="C654" t="s">
         <v>35</v>
@@ -26261,28 +26267,28 @@
         <v>85</v>
       </c>
       <c r="E654" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="F654" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="G654">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/11806b1e-f747-11e5-950e-5404a60d96b5.html","web")</f>
         <v>0</v>
       </c>
       <c r="J654" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="K654" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="M654" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="655" spans="1:13">
       <c r="A655" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B655" t="s">
         <v>948</v>
@@ -26315,10 +26321,10 @@
     </row>
     <row r="656" spans="1:13">
       <c r="A656" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B656" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C656" t="s">
         <v>35</v>
@@ -26327,7 +26333,7 @@
         <v>152</v>
       </c>
       <c r="E656" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="F656" t="s">
         <v>182</v>
@@ -26337,10 +26343,10 @@
         <v>0</v>
       </c>
       <c r="J656" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="K656" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M656" t="s">
         <v>182</v>
@@ -26348,10 +26354,10 @@
     </row>
     <row r="657" spans="1:13">
       <c r="A657" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B657" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C657" t="s">
         <v>35</v>
@@ -26360,7 +26366,7 @@
         <v>152</v>
       </c>
       <c r="E657" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="F657" t="s">
         <v>182</v>
@@ -26370,10 +26376,10 @@
         <v>0</v>
       </c>
       <c r="J657" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="K657" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M657" t="s">
         <v>182</v>
@@ -26381,10 +26387,10 @@
     </row>
     <row r="658" spans="1:13">
       <c r="A658" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B658" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="C658" t="s">
         <v>35</v>
@@ -26393,7 +26399,7 @@
         <v>152</v>
       </c>
       <c r="E658" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="F658" t="s">
         <v>182</v>
@@ -26403,10 +26409,10 @@
         <v>0</v>
       </c>
       <c r="J658" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="K658" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M658" t="s">
         <v>182</v>
@@ -26414,10 +26420,10 @@
     </row>
     <row r="659" spans="1:13">
       <c r="A659" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B659" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C659" t="s">
         <v>35</v>
@@ -26426,31 +26432,31 @@
         <v>85</v>
       </c>
       <c r="E659" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="F659" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="G659">
         <f>HYPERLINK("http://clipc-services.ceda.ac.uk/dreq/u/5914af46-9e49-11e5-803c-0d0b866b59f3.html","web")</f>
         <v>0</v>
       </c>
       <c r="J659" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="K659" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="M659" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="660" spans="1:13">
       <c r="A660" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B660" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C660" t="s">
         <v>35</v>
@@ -26459,7 +26465,7 @@
         <v>550</v>
       </c>
       <c r="E660" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="F660" t="s">
         <v>47</v>
@@ -26469,10 +26475,10 @@
         <v>0</v>
       </c>
       <c r="J660" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="K660" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M660" t="s">
         <v>47</v>
@@ -26480,10 +26486,10 @@
     </row>
     <row r="661" spans="1:13">
       <c r="A661" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B661" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="C661" t="s">
         <v>35</v>
@@ -26492,7 +26498,7 @@
         <v>85</v>
       </c>
       <c r="E661" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="F661" t="s">
         <v>47</v>
@@ -26502,10 +26508,10 @@
         <v>0</v>
       </c>
       <c r="J661" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="K661" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M661" t="s">
         <v>47</v>
@@ -26513,10 +26519,10 @@
     </row>
     <row r="662" spans="1:13">
       <c r="A662" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B662" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C662" t="s">
         <v>35</v>
@@ -26525,7 +26531,7 @@
         <v>550</v>
       </c>
       <c r="E662" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="F662" t="s">
         <v>47</v>
@@ -26535,10 +26541,10 @@
         <v>0</v>
       </c>
       <c r="J662" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="K662" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M662" t="s">
         <v>47</v>
@@ -26546,10 +26552,10 @@
     </row>
     <row r="663" spans="1:13">
       <c r="A663" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B663" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C663" t="s">
         <v>50</v>
@@ -26558,7 +26564,7 @@
         <v>152</v>
       </c>
       <c r="E663" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="F663" t="s">
         <v>182</v>
@@ -26568,10 +26574,10 @@
         <v>0</v>
       </c>
       <c r="J663" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="K663" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M663" t="s">
         <v>182</v>
@@ -26579,10 +26585,10 @@
     </row>
     <row r="664" spans="1:13">
       <c r="A664" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B664" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="C664" t="s">
         <v>50</v>
@@ -26591,7 +26597,7 @@
         <v>152</v>
       </c>
       <c r="E664" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="F664" t="s">
         <v>182</v>
@@ -26601,10 +26607,10 @@
         <v>0</v>
       </c>
       <c r="J664" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="K664" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M664" t="s">
         <v>182</v>
@@ -26612,10 +26618,10 @@
     </row>
     <row r="665" spans="1:13">
       <c r="A665" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B665" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="C665" t="s">
         <v>50</v>
@@ -26624,7 +26630,7 @@
         <v>152</v>
       </c>
       <c r="E665" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="F665" t="s">
         <v>182</v>
@@ -26634,10 +26640,10 @@
         <v>0</v>
       </c>
       <c r="J665" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="K665" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M665" t="s">
         <v>182</v>
@@ -26645,7 +26651,7 @@
     </row>
     <row r="666" spans="1:13">
       <c r="A666" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B666" t="s">
         <v>1213</v>
@@ -26654,7 +26660,7 @@
         <v>50</v>
       </c>
       <c r="D666" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E666" t="s">
         <v>1214</v>
@@ -26678,7 +26684,7 @@
     </row>
     <row r="667" spans="1:13">
       <c r="A667" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B667" t="s">
         <v>1120</v>
@@ -26711,7 +26717,7 @@
     </row>
     <row r="668" spans="1:13">
       <c r="A668" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B668" t="s">
         <v>1123</v>
@@ -26744,7 +26750,7 @@
     </row>
     <row r="669" spans="1:13">
       <c r="A669" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B669" t="s">
         <v>1125</v>
@@ -26769,7 +26775,7 @@
         <v>1127</v>
       </c>
       <c r="K669" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="M669" t="s">
         <v>57</v>
@@ -26777,7 +26783,7 @@
     </row>
     <row r="670" spans="1:13">
       <c r="A670" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B670" t="s">
         <v>1128</v>
@@ -26802,7 +26808,7 @@
         <v>1127</v>
       </c>
       <c r="K670" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="M670" t="s">
         <v>57</v>
@@ -26810,10 +26816,10 @@
     </row>
     <row r="671" spans="1:13">
       <c r="A671" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B671" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C671" t="s">
         <v>50</v>
@@ -26822,7 +26828,7 @@
         <v>152</v>
       </c>
       <c r="E671" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="F671" t="s">
         <v>182</v>
@@ -26832,10 +26838,10 @@
         <v>0</v>
       </c>
       <c r="J671" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="K671" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M671" t="s">
         <v>182</v>
@@ -26843,10 +26849,10 @@
     </row>
     <row r="672" spans="1:13">
       <c r="A672" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B672" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="C672" t="s">
         <v>50</v>
@@ -26855,7 +26861,7 @@
         <v>152</v>
       </c>
       <c r="E672" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="F672" t="s">
         <v>182</v>
@@ -26865,10 +26871,10 @@
         <v>0</v>
       </c>
       <c r="J672" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="K672" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M672" t="s">
         <v>182</v>
@@ -26876,10 +26882,10 @@
     </row>
     <row r="673" spans="1:13">
       <c r="A673" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B673" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C673" t="s">
         <v>50</v>
@@ -26888,7 +26894,7 @@
         <v>152</v>
       </c>
       <c r="E673" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="F673" t="s">
         <v>182</v>
@@ -26898,10 +26904,10 @@
         <v>0</v>
       </c>
       <c r="J673" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="K673" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M673" t="s">
         <v>182</v>
@@ -26909,10 +26915,10 @@
     </row>
     <row r="674" spans="1:13">
       <c r="A674" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B674" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="C674" t="s">
         <v>50</v>
@@ -26921,7 +26927,7 @@
         <v>152</v>
       </c>
       <c r="E674" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="F674" t="s">
         <v>182</v>
@@ -26931,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="J674" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="K674" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M674" t="s">
         <v>182</v>
@@ -26942,10 +26948,10 @@
     </row>
     <row r="675" spans="1:13">
       <c r="A675" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B675" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C675" t="s">
         <v>50</v>
@@ -26954,7 +26960,7 @@
         <v>152</v>
       </c>
       <c r="E675" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="F675" t="s">
         <v>182</v>
@@ -26964,10 +26970,10 @@
         <v>0</v>
       </c>
       <c r="J675" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="K675" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M675" t="s">
         <v>182</v>
@@ -26975,19 +26981,19 @@
     </row>
     <row r="676" spans="1:13">
       <c r="A676" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B676" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C676" t="s">
         <v>35</v>
       </c>
       <c r="D676" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E676" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="F676" t="s">
         <v>74</v>
@@ -26997,10 +27003,10 @@
         <v>0</v>
       </c>
       <c r="J676" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="K676" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="M676" t="s">
         <v>74</v>
@@ -27008,7 +27014,7 @@
     </row>
     <row r="677" spans="1:13">
       <c r="A677" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B677" t="s">
         <v>266</v>
@@ -27033,7 +27039,7 @@
         <v>268</v>
       </c>
       <c r="K677" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="M677" t="s">
         <v>74</v>
@@ -27041,7 +27047,7 @@
     </row>
     <row r="678" spans="1:13">
       <c r="A678" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B678" t="s">
         <v>1282</v>
@@ -27066,7 +27072,7 @@
         <v>1284</v>
       </c>
       <c r="K678" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="M678" t="s">
         <v>74</v>
@@ -27074,7 +27080,7 @@
     </row>
     <row r="679" spans="1:13">
       <c r="A679" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B679" t="s">
         <v>481</v>
@@ -27099,7 +27105,7 @@
         <v>483</v>
       </c>
       <c r="K679" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="M679" t="s">
         <v>74</v>
@@ -27107,19 +27113,19 @@
     </row>
     <row r="680" spans="1:13">
       <c r="A680" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B680" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C680" t="s">
         <v>35</v>
       </c>
       <c r="D680" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E680" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="F680" t="s">
         <v>74</v>
@@ -27129,10 +27135,10 @@
         <v>0</v>
       </c>
       <c r="J680" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="K680" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="M680" t="s">
         <v>74</v>
@@ -27140,10 +27146,10 @@
     </row>
     <row r="681" spans="1:13">
       <c r="A681" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B681" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="C681" t="s">
         <v>35</v>
@@ -27152,7 +27158,7 @@
         <v>152</v>
       </c>
       <c r="E681" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="F681" t="s">
         <v>115</v>
@@ -27162,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="J681" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="K681" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="M681" t="s">
         <v>115</v>
@@ -27173,10 +27179,10 @@
     </row>
     <row r="682" spans="1:13">
       <c r="A682" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B682" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="C682" t="s">
         <v>35</v>
@@ -27185,7 +27191,7 @@
         <v>152</v>
       </c>
       <c r="E682" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="F682" t="s">
         <v>115</v>
@@ -27195,10 +27201,10 @@
         <v>0</v>
       </c>
       <c r="J682" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="K682" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="M682" t="s">
         <v>115</v>
@@ -27206,10 +27212,10 @@
     </row>
     <row r="683" spans="1:13">
       <c r="A683" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B683" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="C683" t="s">
         <v>35</v>
@@ -27218,7 +27224,7 @@
         <v>152</v>
       </c>
       <c r="E683" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="F683" t="s">
         <v>115</v>
@@ -27228,10 +27234,10 @@
         <v>0</v>
       </c>
       <c r="J683" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="K683" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="M683" t="s">
         <v>115</v>
@@ -27239,7 +27245,7 @@
     </row>
     <row r="684" spans="1:13">
       <c r="A684" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B684" t="s">
         <v>1216</v>
@@ -27248,7 +27254,7 @@
         <v>50</v>
       </c>
       <c r="D684" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E684" t="s">
         <v>1217</v>
@@ -27272,10 +27278,10 @@
     </row>
     <row r="685" spans="1:13">
       <c r="A685" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B685" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C685" t="s">
         <v>35</v>
@@ -27284,7 +27290,7 @@
         <v>85</v>
       </c>
       <c r="E685" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="F685" t="s">
         <v>35</v>
@@ -27294,10 +27300,10 @@
         <v>0</v>
       </c>
       <c r="J685" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="K685" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M685" t="s">
         <v>35</v>
@@ -27305,10 +27311,10 @@
     </row>
     <row r="686" spans="1:13">
       <c r="A686" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B686" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C686" t="s">
         <v>35</v>
@@ -27317,7 +27323,7 @@
         <v>550</v>
       </c>
       <c r="E686" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="F686" t="s">
         <v>35</v>
@@ -27327,10 +27333,10 @@
         <v>0</v>
       </c>
       <c r="J686" t="s">
-        <v>1616</v>
+        <v>1665</v>
       </c>
       <c r="K686" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M686" t="s">
         <v>35</v>
@@ -27338,10 +27344,10 @@
     </row>
     <row r="687" spans="1:13">
       <c r="A687" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B687" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="C687" t="s">
         <v>35</v>
@@ -27350,7 +27356,7 @@
         <v>85</v>
       </c>
       <c r="E687" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="F687" t="s">
         <v>35</v>
@@ -27360,10 +27366,10 @@
         <v>0</v>
       </c>
       <c r="J687" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="K687" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M687" t="s">
         <v>35</v>
@@ -27371,19 +27377,19 @@
     </row>
     <row r="688" spans="1:13">
       <c r="A688" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B688" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="C688" t="s">
         <v>35</v>
       </c>
       <c r="D688" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E688" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="F688" t="s">
         <v>57</v>
@@ -27393,10 +27399,10 @@
         <v>0</v>
       </c>
       <c r="J688" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="K688" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="M688" t="s">
         <v>57</v>
@@ -27404,10 +27410,10 @@
     </row>
     <row r="689" spans="1:13">
       <c r="A689" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B689" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="C689" t="s">
         <v>35</v>
@@ -27416,7 +27422,7 @@
         <v>152</v>
       </c>
       <c r="E689" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="F689" t="s">
         <v>74</v>
@@ -27426,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="J689" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="K689" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M689" t="s">
         <v>74</v>
@@ -27437,10 +27443,10 @@
     </row>
     <row r="690" spans="1:13">
       <c r="A690" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B690" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="C690" t="s">
         <v>35</v>
@@ -27449,7 +27455,7 @@
         <v>152</v>
       </c>
       <c r="E690" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="F690" t="s">
         <v>74</v>
@@ -27459,10 +27465,10 @@
         <v>0</v>
       </c>
       <c r="J690" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="K690" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M690" t="s">
         <v>74</v>
@@ -27470,10 +27476,10 @@
     </row>
     <row r="691" spans="1:13">
       <c r="A691" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B691" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="C691" t="s">
         <v>35</v>
@@ -27482,7 +27488,7 @@
         <v>152</v>
       </c>
       <c r="E691" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="F691" t="s">
         <v>74</v>
@@ -27492,10 +27498,10 @@
         <v>0</v>
       </c>
       <c r="J691" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="K691" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M691" t="s">
         <v>74</v>
@@ -27503,10 +27509,10 @@
     </row>
     <row r="692" spans="1:13">
       <c r="A692" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B692" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="C692" t="s">
         <v>35</v>
@@ -27515,7 +27521,7 @@
         <v>152</v>
       </c>
       <c r="E692" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="F692" t="s">
         <v>74</v>
@@ -27525,10 +27531,10 @@
         <v>0</v>
       </c>
       <c r="J692" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="K692" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M692" t="s">
         <v>74</v>
@@ -27536,19 +27542,19 @@
     </row>
     <row r="693" spans="1:13">
       <c r="A693" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B693" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="C693" t="s">
         <v>50</v>
       </c>
       <c r="D693" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="E693" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="F693" t="s">
         <v>464</v>
@@ -27558,10 +27564,10 @@
         <v>0</v>
       </c>
       <c r="J693" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="K693" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M693" t="s">
         <v>464</v>
@@ -27569,19 +27575,19 @@
     </row>
     <row r="694" spans="1:13">
       <c r="A694" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B694" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="C694" t="s">
         <v>35</v>
       </c>
       <c r="D694" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="E694" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="F694" t="s">
         <v>305</v>
@@ -27591,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="J694" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="K694" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="M694" t="s">
         <v>305</v>
@@ -27602,7 +27608,7 @@
     </row>
     <row r="695" spans="1:13">
       <c r="A695" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B695" t="s">
         <v>1288</v>
@@ -27635,7 +27641,7 @@
     </row>
     <row r="696" spans="1:13">
       <c r="A696" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B696" t="s">
         <v>1291</v>
@@ -27668,7 +27674,7 @@
     </row>
     <row r="697" spans="1:13">
       <c r="A697" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B697" t="s">
         <v>1130</v>
@@ -27701,7 +27707,7 @@
     </row>
     <row r="698" spans="1:13">
       <c r="A698" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B698" t="s">
         <v>1133</v>
@@ -27734,7 +27740,7 @@
     </row>
     <row r="699" spans="1:13">
       <c r="A699" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B699" t="s">
         <v>1136</v>
@@ -27767,19 +27773,19 @@
     </row>
     <row r="700" spans="1:13">
       <c r="A700" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B700" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="C700" t="s">
         <v>50</v>
       </c>
       <c r="D700" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E700" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="F700" t="s">
         <v>19</v>
@@ -27789,7 +27795,7 @@
         <v>0</v>
       </c>
       <c r="J700" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="K700" t="s">
         <v>21</v>
@@ -27800,7 +27806,7 @@
     </row>
     <row r="701" spans="1:13">
       <c r="A701" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B701" t="s">
         <v>1139</v>
@@ -27833,19 +27839,19 @@
     </row>
     <row r="702" spans="1:13">
       <c r="A702" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B702" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="C702" t="s">
         <v>50</v>
       </c>
       <c r="D702" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E702" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="F702" t="s">
         <v>19</v>
@@ -27855,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="J702" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="K702" t="s">
         <v>21</v>
@@ -27866,19 +27872,19 @@
     </row>
     <row r="703" spans="1:13">
       <c r="A703" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B703" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="C703" t="s">
         <v>50</v>
       </c>
       <c r="D703" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E703" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="F703" t="s">
         <v>19</v>
@@ -27888,7 +27894,7 @@
         <v>0</v>
       </c>
       <c r="J703" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="K703" t="s">
         <v>21</v>
@@ -27899,19 +27905,19 @@
     </row>
     <row r="704" spans="1:13">
       <c r="A704" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B704" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="C704" t="s">
         <v>35</v>
       </c>
       <c r="D704" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="E704" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="F704" t="s">
         <v>305</v>
@@ -27921,10 +27927,10 @@
         <v>0</v>
       </c>
       <c r="J704" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="K704" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="M704" t="s">
         <v>305</v>
@@ -27932,10 +27938,10 @@
     </row>
     <row r="705" spans="1:13">
       <c r="A705" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B705" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="C705" t="s">
         <v>35</v>
@@ -27944,7 +27950,7 @@
         <v>152</v>
       </c>
       <c r="E705" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="F705" t="s">
         <v>143</v>
@@ -27954,7 +27960,7 @@
         <v>0</v>
       </c>
       <c r="J705" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="K705" t="s">
         <v>21</v>
@@ -27965,7 +27971,7 @@
     </row>
     <row r="706" spans="1:13">
       <c r="A706" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B706" t="s">
         <v>55</v>
@@ -27990,7 +27996,7 @@
         <v>58</v>
       </c>
       <c r="K706" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="M706" t="s">
         <v>57</v>
@@ -27998,10 +28004,10 @@
     </row>
     <row r="707" spans="1:13">
       <c r="A707" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B707" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="C707" t="s">
         <v>50</v>
@@ -28010,7 +28016,7 @@
         <v>152</v>
       </c>
       <c r="E707" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="F707" t="s">
         <v>57</v>
@@ -28020,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="J707" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="K707" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M707" t="s">
         <v>57</v>
@@ -28031,10 +28037,10 @@
     </row>
     <row r="708" spans="1:13">
       <c r="A708" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B708" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="C708" t="s">
         <v>50</v>
@@ -28043,7 +28049,7 @@
         <v>152</v>
       </c>
       <c r="E708" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="F708" t="s">
         <v>57</v>
@@ -28053,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="J708" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="K708" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M708" t="s">
         <v>57</v>
@@ -28064,10 +28070,10 @@
     </row>
     <row r="709" spans="1:13">
       <c r="A709" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B709" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="C709" t="s">
         <v>50</v>
@@ -28076,7 +28082,7 @@
         <v>152</v>
       </c>
       <c r="E709" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="F709" t="s">
         <v>57</v>
@@ -28086,10 +28092,10 @@
         <v>0</v>
       </c>
       <c r="J709" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="K709" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M709" t="s">
         <v>57</v>
@@ -28097,10 +28103,10 @@
     </row>
     <row r="710" spans="1:13">
       <c r="A710" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B710" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="C710" t="s">
         <v>50</v>
@@ -28109,7 +28115,7 @@
         <v>152</v>
       </c>
       <c r="E710" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="F710" t="s">
         <v>57</v>
@@ -28119,10 +28125,10 @@
         <v>0</v>
       </c>
       <c r="J710" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="K710" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M710" t="s">
         <v>57</v>
@@ -28130,10 +28136,10 @@
     </row>
     <row r="711" spans="1:13">
       <c r="A711" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B711" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="C711" t="s">
         <v>35</v>
@@ -28142,7 +28148,7 @@
         <v>152</v>
       </c>
       <c r="E711" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="F711" t="s">
         <v>143</v>
@@ -28152,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="J711" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="K711" t="s">
         <v>21</v>
@@ -28163,10 +28169,10 @@
     </row>
     <row r="712" spans="1:13">
       <c r="A712" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B712" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="C712" t="s">
         <v>50</v>
@@ -28175,7 +28181,7 @@
         <v>152</v>
       </c>
       <c r="E712" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="F712" t="s">
         <v>182</v>
@@ -28185,10 +28191,10 @@
         <v>0</v>
       </c>
       <c r="J712" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="K712" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="M712" t="s">
         <v>182</v>
@@ -28196,10 +28202,10 @@
     </row>
     <row r="713" spans="1:13">
       <c r="A713" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B713" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="C713" t="s">
         <v>50</v>
@@ -28208,7 +28214,7 @@
         <v>152</v>
       </c>
       <c r="E713" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="F713" t="s">
         <v>182</v>
@@ -28218,10 +28224,10 @@
         <v>0</v>
       </c>
       <c r="J713" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="K713" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M713" t="s">
         <v>182</v>
@@ -28229,10 +28235,10 @@
     </row>
     <row r="714" spans="1:13">
       <c r="A714" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B714" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="C714" t="s">
         <v>50</v>
@@ -28241,7 +28247,7 @@
         <v>152</v>
       </c>
       <c r="E714" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="F714" t="s">
         <v>182</v>
@@ -28251,10 +28257,10 @@
         <v>0</v>
       </c>
       <c r="J714" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="K714" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M714" t="s">
         <v>182</v>
@@ -28262,19 +28268,19 @@
     </row>
     <row r="715" spans="1:13">
       <c r="A715" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B715" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="C715" t="s">
         <v>50</v>
       </c>
       <c r="D715" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="E715" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="F715" t="s">
         <v>38</v>
@@ -28284,10 +28290,10 @@
         <v>0</v>
       </c>
       <c r="J715" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="K715" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="M715" t="s">
         <v>38</v>
@@ -28295,10 +28301,10 @@
     </row>
     <row r="716" spans="1:13">
       <c r="A716" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B716" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="C716" t="s">
         <v>50</v>
@@ -28307,7 +28313,7 @@
         <v>152</v>
       </c>
       <c r="E716" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="F716" t="s">
         <v>57</v>
@@ -28317,10 +28323,10 @@
         <v>0</v>
       </c>
       <c r="J716" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="K716" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M716" t="s">
         <v>57</v>
@@ -28328,7 +28334,7 @@
     </row>
     <row r="717" spans="1:13">
       <c r="A717" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B717" t="s">
         <v>894</v>
@@ -28361,7 +28367,7 @@
     </row>
     <row r="718" spans="1:13">
       <c r="A718" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B718" t="s">
         <v>897</v>
@@ -28394,7 +28400,7 @@
     </row>
     <row r="720" spans="1:13">
       <c r="A720" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="B720" t="s">
         <v>284</v>
@@ -28403,7 +28409,7 @@
         <v>50</v>
       </c>
       <c r="D720" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="E720" t="s">
         <v>286</v>
@@ -28427,7 +28433,7 @@
     </row>
     <row r="721" spans="1:13">
       <c r="A721" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="B721" t="s">
         <v>288</v>
@@ -28436,7 +28442,7 @@
         <v>16</v>
       </c>
       <c r="D721" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="E721" t="s">
         <v>289</v>
@@ -28460,7 +28466,7 @@
     </row>
     <row r="722" spans="1:13">
       <c r="A722" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="B722" t="s">
         <v>291</v>
@@ -28469,7 +28475,7 @@
         <v>50</v>
       </c>
       <c r="D722" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="E722" t="s">
         <v>292</v>
@@ -28493,7 +28499,7 @@
     </row>
     <row r="723" spans="1:13">
       <c r="A723" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="B723" t="s">
         <v>294</v>
@@ -28502,7 +28508,7 @@
         <v>50</v>
       </c>
       <c r="D723" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="E723" t="s">
         <v>295</v>
@@ -28526,7 +28532,7 @@
     </row>
     <row r="724" spans="1:13">
       <c r="A724" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="B724" t="s">
         <v>297</v>
@@ -28535,7 +28541,7 @@
         <v>16</v>
       </c>
       <c r="D724" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="E724" t="s">
         <v>298</v>
@@ -28559,7 +28565,7 @@
     </row>
     <row r="725" spans="1:13">
       <c r="A725" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="B725" t="s">
         <v>300</v>
@@ -28568,7 +28574,7 @@
         <v>16</v>
       </c>
       <c r="D725" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="E725" t="s">
         <v>301</v>
@@ -28592,7 +28598,7 @@
     </row>
     <row r="726" spans="1:13">
       <c r="A726" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="B726" t="s">
         <v>303</v>
@@ -28601,7 +28607,7 @@
         <v>50</v>
       </c>
       <c r="D726" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="E726" t="s">
         <v>304</v>
@@ -28625,7 +28631,7 @@
     </row>
     <row r="727" spans="1:13">
       <c r="A727" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="B727" t="s">
         <v>307</v>
@@ -28634,7 +28640,7 @@
         <v>50</v>
       </c>
       <c r="D727" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="E727" t="s">
         <v>308</v>
@@ -28658,7 +28664,7 @@
     </row>
     <row r="728" spans="1:13">
       <c r="A728" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="B728" t="s">
         <v>310</v>
@@ -28667,7 +28673,7 @@
         <v>50</v>
       </c>
       <c r="D728" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="E728" t="s">
         <v>311</v>
@@ -28691,7 +28697,7 @@
     </row>
     <row r="729" spans="1:13">
       <c r="A729" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="B729" t="s">
         <v>313</v>
@@ -28700,7 +28706,7 @@
         <v>35</v>
       </c>
       <c r="D729" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="E729" t="s">
         <v>314</v>
@@ -28724,7 +28730,7 @@
     </row>
     <row r="730" spans="1:13">
       <c r="A730" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="B730" t="s">
         <v>316</v>
@@ -28733,7 +28739,7 @@
         <v>50</v>
       </c>
       <c r="D730" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="E730" t="s">
         <v>317</v>
@@ -28757,7 +28763,7 @@
     </row>
     <row r="731" spans="1:13">
       <c r="A731" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="B731" t="s">
         <v>319</v>
@@ -28766,7 +28772,7 @@
         <v>50</v>
       </c>
       <c r="D731" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="E731" t="s">
         <v>320</v>
@@ -28790,19 +28796,19 @@
     </row>
     <row r="733" spans="1:13">
       <c r="A733" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="B733" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="C733" t="s">
         <v>35</v>
       </c>
       <c r="D733" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="E733" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="F733" t="s">
         <v>38</v>
@@ -28812,10 +28818,10 @@
         <v>0</v>
       </c>
       <c r="J733" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="K733" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="M733" t="s">
         <v>38</v>
@@ -28823,19 +28829,19 @@
     </row>
     <row r="734" spans="1:13">
       <c r="A734" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="B734" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="C734" t="s">
         <v>50</v>
       </c>
       <c r="D734" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="E734" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="F734" t="s">
         <v>38</v>
@@ -28845,10 +28851,10 @@
         <v>0</v>
       </c>
       <c r="J734" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="K734" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="M734" t="s">
         <v>38</v>
@@ -28856,19 +28862,19 @@
     </row>
     <row r="735" spans="1:13">
       <c r="A735" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="B735" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="C735" t="s">
         <v>50</v>
       </c>
       <c r="D735" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="E735" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="F735" t="s">
         <v>38</v>
@@ -28878,10 +28884,10 @@
         <v>0</v>
       </c>
       <c r="J735" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="K735" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="M735" t="s">
         <v>38</v>
@@ -28889,10 +28895,10 @@
     </row>
     <row r="736" spans="1:13">
       <c r="A736" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="B736" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="C736" t="s">
         <v>35</v>
@@ -28901,7 +28907,7 @@
         <v>152</v>
       </c>
       <c r="E736" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="F736" t="s">
         <v>182</v>
@@ -28911,10 +28917,10 @@
         <v>0</v>
       </c>
       <c r="J736" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="K736" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="M736" t="s">
         <v>182</v>
@@ -28922,10 +28928,10 @@
     </row>
     <row r="737" spans="1:13">
       <c r="A737" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="B737" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="C737" t="s">
         <v>50</v>
@@ -28934,7 +28940,7 @@
         <v>152</v>
       </c>
       <c r="E737" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="F737" t="s">
         <v>182</v>
@@ -28944,10 +28950,10 @@
         <v>0</v>
       </c>
       <c r="J737" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="K737" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="M737" t="s">
         <v>182</v>
@@ -28955,10 +28961,10 @@
     </row>
     <row r="738" spans="1:13">
       <c r="A738" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="B738" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="C738" t="s">
         <v>50</v>
@@ -28967,7 +28973,7 @@
         <v>152</v>
       </c>
       <c r="E738" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="F738" t="s">
         <v>182</v>
@@ -28977,10 +28983,10 @@
         <v>0</v>
       </c>
       <c r="J738" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="K738" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="M738" t="s">
         <v>182</v>
@@ -28988,10 +28994,10 @@
     </row>
     <row r="739" spans="1:13">
       <c r="A739" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="B739" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="C739" t="s">
         <v>50</v>
@@ -29000,7 +29006,7 @@
         <v>152</v>
       </c>
       <c r="E739" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="F739" t="s">
         <v>182</v>
@@ -29010,10 +29016,10 @@
         <v>0</v>
       </c>
       <c r="J739" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="K739" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="M739" t="s">
         <v>182</v>
@@ -29021,19 +29027,19 @@
     </row>
     <row r="740" spans="1:13">
       <c r="A740" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="B740" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="C740" t="s">
         <v>50</v>
       </c>
       <c r="D740" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="E740" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="F740" t="s">
         <v>38</v>
@@ -29043,10 +29049,10 @@
         <v>0</v>
       </c>
       <c r="J740" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="K740" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="M740" t="s">
         <v>38</v>
@@ -29054,19 +29060,19 @@
     </row>
     <row r="741" spans="1:13">
       <c r="A741" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="B741" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="C741" t="s">
         <v>50</v>
       </c>
       <c r="D741" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="E741" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="F741" t="s">
         <v>38</v>
@@ -29076,10 +29082,10 @@
         <v>0</v>
       </c>
       <c r="J741" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="K741" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="M741" t="s">
         <v>38</v>
@@ -29087,19 +29093,19 @@
     </row>
     <row r="742" spans="1:13">
       <c r="A742" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="B742" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="C742" t="s">
         <v>50</v>
       </c>
       <c r="D742" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="E742" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="F742" t="s">
         <v>38</v>
@@ -29109,10 +29115,10 @@
         <v>0</v>
       </c>
       <c r="J742" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="K742" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="M742" t="s">
         <v>38</v>
@@ -29120,19 +29126,19 @@
     </row>
     <row r="743" spans="1:13">
       <c r="A743" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="B743" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="C743" t="s">
         <v>50</v>
       </c>
       <c r="D743" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="E743" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="F743" t="s">
         <v>38</v>
@@ -29142,10 +29148,10 @@
         <v>0</v>
       </c>
       <c r="J743" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="K743" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="M743" t="s">
         <v>38</v>
